--- a/Data/관심주_테마별.xlsx
+++ b/Data/관심주_테마별.xlsx
@@ -561,7 +561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T229"/>
+  <dimension ref="A1:T279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17094,6 +17094,3606 @@
         </is>
       </c>
     </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>255440</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>야스</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>12450</v>
+      </c>
+      <c r="E230" t="n">
+        <v>6409</v>
+      </c>
+      <c r="F230" t="n">
+        <v>6824</v>
+      </c>
+      <c r="G230" t="n">
+        <v>7308</v>
+      </c>
+      <c r="H230" t="n">
+        <v>7793</v>
+      </c>
+      <c r="I230" t="n">
+        <v>8070</v>
+      </c>
+      <c r="J230" t="n">
+        <v>8983</v>
+      </c>
+      <c r="K230" t="n">
+        <v>9800</v>
+      </c>
+      <c r="L230" t="n">
+        <v>10616</v>
+      </c>
+      <c r="M230" t="n">
+        <v>12097</v>
+      </c>
+      <c r="N230" t="n">
+        <v>13260</v>
+      </c>
+      <c r="O230" t="n">
+        <v>15903</v>
+      </c>
+      <c r="P230" t="n">
+        <v>17605</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>20180</v>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S230" t="n">
+        <v>6340</v>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>043590</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>크로바하이텍</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>1911</v>
+      </c>
+      <c r="E231" t="n">
+        <v>964</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1142</v>
+      </c>
+      <c r="G231" t="n">
+        <v>1350</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1557</v>
+      </c>
+      <c r="I231" t="n">
+        <v>1676</v>
+      </c>
+      <c r="J231" t="n">
+        <v>2067</v>
+      </c>
+      <c r="K231" t="n">
+        <v>2417</v>
+      </c>
+      <c r="L231" t="n">
+        <v>2767</v>
+      </c>
+      <c r="M231" t="n">
+        <v>3401</v>
+      </c>
+      <c r="N231" t="n">
+        <v>3900</v>
+      </c>
+      <c r="O231" t="n">
+        <v>5032</v>
+      </c>
+      <c r="P231" t="n">
+        <v>5762</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>6865</v>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S231" t="n">
+        <v>935</v>
+      </c>
+      <c r="T231" t="inlineStr">
+        <is>
+          <t>2023-03-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>079950</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>인베니아</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>2080</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1318</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1393</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1480</v>
+      </c>
+      <c r="H232" t="n">
+        <v>1567</v>
+      </c>
+      <c r="I232" t="n">
+        <v>1617</v>
+      </c>
+      <c r="J232" t="n">
+        <v>1781</v>
+      </c>
+      <c r="K232" t="n">
+        <v>1928</v>
+      </c>
+      <c r="L232" t="n">
+        <v>2074</v>
+      </c>
+      <c r="M232" t="n">
+        <v>2341</v>
+      </c>
+      <c r="N232" t="n">
+        <v>2550</v>
+      </c>
+      <c r="O232" t="n">
+        <v>3025</v>
+      </c>
+      <c r="P232" t="n">
+        <v>3331</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>3794</v>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S232" t="n">
+        <v>1306</v>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>2023-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>317330</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>덕산테코피아</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>20500</v>
+      </c>
+      <c r="E233" t="n">
+        <v>13347</v>
+      </c>
+      <c r="F233" t="n">
+        <v>13929</v>
+      </c>
+      <c r="G233" t="n">
+        <v>14608</v>
+      </c>
+      <c r="H233" t="n">
+        <v>15287</v>
+      </c>
+      <c r="I233" t="n">
+        <v>15675</v>
+      </c>
+      <c r="J233" t="n">
+        <v>16955</v>
+      </c>
+      <c r="K233" t="n">
+        <v>18100</v>
+      </c>
+      <c r="L233" t="n">
+        <v>19244</v>
+      </c>
+      <c r="M233" t="n">
+        <v>21320</v>
+      </c>
+      <c r="N233" t="n">
+        <v>22950</v>
+      </c>
+      <c r="O233" t="n">
+        <v>26655</v>
+      </c>
+      <c r="P233" t="n">
+        <v>29041</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>32650</v>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S233" t="n">
+        <v>13250</v>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>2023-01-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>171090</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>선익시스템</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>36700</v>
+      </c>
+      <c r="E234" t="n">
+        <v>13204</v>
+      </c>
+      <c r="F234" t="n">
+        <v>14731</v>
+      </c>
+      <c r="G234" t="n">
+        <v>16513</v>
+      </c>
+      <c r="H234" t="n">
+        <v>18294</v>
+      </c>
+      <c r="I234" t="n">
+        <v>19312</v>
+      </c>
+      <c r="J234" t="n">
+        <v>22671</v>
+      </c>
+      <c r="K234" t="n">
+        <v>25675</v>
+      </c>
+      <c r="L234" t="n">
+        <v>28678</v>
+      </c>
+      <c r="M234" t="n">
+        <v>34124</v>
+      </c>
+      <c r="N234" t="n">
+        <v>38400</v>
+      </c>
+      <c r="O234" t="n">
+        <v>48121</v>
+      </c>
+      <c r="P234" t="n">
+        <v>54382</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>63850</v>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S234" t="n">
+        <v>12950</v>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>2022-10-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>144960</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>뉴파워프라즈마</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>5180</v>
+      </c>
+      <c r="E235" t="n">
+        <v>3260</v>
+      </c>
+      <c r="F235" t="n">
+        <v>3382</v>
+      </c>
+      <c r="G235" t="n">
+        <v>3525</v>
+      </c>
+      <c r="H235" t="n">
+        <v>3668</v>
+      </c>
+      <c r="I235" t="n">
+        <v>3750</v>
+      </c>
+      <c r="J235" t="n">
+        <v>4019</v>
+      </c>
+      <c r="K235" t="n">
+        <v>4260</v>
+      </c>
+      <c r="L235" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M235" t="n">
+        <v>4937</v>
+      </c>
+      <c r="N235" t="n">
+        <v>5280</v>
+      </c>
+      <c r="O235" t="n">
+        <v>6059</v>
+      </c>
+      <c r="P235" t="n">
+        <v>6561</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>7320</v>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S235" t="n">
+        <v>3240</v>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>143540</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>영우디에스피</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>1463</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1145</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1207</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1279</v>
+      </c>
+      <c r="H236" t="n">
+        <v>1351</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1392</v>
+      </c>
+      <c r="J236" t="n">
+        <v>1528</v>
+      </c>
+      <c r="K236" t="n">
+        <v>1650</v>
+      </c>
+      <c r="L236" t="n">
+        <v>1771</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1991</v>
+      </c>
+      <c r="N236" t="n">
+        <v>2165</v>
+      </c>
+      <c r="O236" t="n">
+        <v>2558</v>
+      </c>
+      <c r="P236" t="n">
+        <v>2811</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>3195</v>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S236" t="n">
+        <v>1135</v>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>2022-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>161580</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>필옵틱스</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>10390</v>
+      </c>
+      <c r="E237" t="n">
+        <v>6720</v>
+      </c>
+      <c r="F237" t="n">
+        <v>6961</v>
+      </c>
+      <c r="G237" t="n">
+        <v>7242</v>
+      </c>
+      <c r="H237" t="n">
+        <v>7524</v>
+      </c>
+      <c r="I237" t="n">
+        <v>7685</v>
+      </c>
+      <c r="J237" t="n">
+        <v>8215</v>
+      </c>
+      <c r="K237" t="n">
+        <v>8690</v>
+      </c>
+      <c r="L237" t="n">
+        <v>9164</v>
+      </c>
+      <c r="M237" t="n">
+        <v>10024</v>
+      </c>
+      <c r="N237" t="n">
+        <v>10700</v>
+      </c>
+      <c r="O237" t="n">
+        <v>12235</v>
+      </c>
+      <c r="P237" t="n">
+        <v>13224</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>14720</v>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S237" t="n">
+        <v>6680</v>
+      </c>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>2022-07-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>272290</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>이녹스첨단소재</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>43100</v>
+      </c>
+      <c r="E238" t="n">
+        <v>26379</v>
+      </c>
+      <c r="F238" t="n">
+        <v>27453</v>
+      </c>
+      <c r="G238" t="n">
+        <v>28706</v>
+      </c>
+      <c r="H238" t="n">
+        <v>29959</v>
+      </c>
+      <c r="I238" t="n">
+        <v>30675</v>
+      </c>
+      <c r="J238" t="n">
+        <v>33037</v>
+      </c>
+      <c r="K238" t="n">
+        <v>35150</v>
+      </c>
+      <c r="L238" t="n">
+        <v>37262</v>
+      </c>
+      <c r="M238" t="n">
+        <v>41092</v>
+      </c>
+      <c r="N238" t="n">
+        <v>44100</v>
+      </c>
+      <c r="O238" t="n">
+        <v>50937</v>
+      </c>
+      <c r="P238" t="n">
+        <v>55341</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>62000</v>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S238" t="n">
+        <v>26200</v>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>171010</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>램테크놀러지</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E239" t="n">
+        <v>5295</v>
+      </c>
+      <c r="F239" t="n">
+        <v>5445</v>
+      </c>
+      <c r="G239" t="n">
+        <v>5620</v>
+      </c>
+      <c r="H239" t="n">
+        <v>5795</v>
+      </c>
+      <c r="I239" t="n">
+        <v>5895</v>
+      </c>
+      <c r="J239" t="n">
+        <v>6225</v>
+      </c>
+      <c r="K239" t="n">
+        <v>6520</v>
+      </c>
+      <c r="L239" t="n">
+        <v>6815</v>
+      </c>
+      <c r="M239" t="n">
+        <v>7350</v>
+      </c>
+      <c r="N239" t="n">
+        <v>7770</v>
+      </c>
+      <c r="O239" t="n">
+        <v>8725</v>
+      </c>
+      <c r="P239" t="n">
+        <v>9340</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>10270</v>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S239" t="n">
+        <v>5270</v>
+      </c>
+      <c r="T239" t="inlineStr">
+        <is>
+          <t>2022-10-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>114810</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>한솔아이원스</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>7800</v>
+      </c>
+      <c r="E240" t="n">
+        <v>6082</v>
+      </c>
+      <c r="F240" t="n">
+        <v>6275</v>
+      </c>
+      <c r="G240" t="n">
+        <v>6500</v>
+      </c>
+      <c r="H240" t="n">
+        <v>6726</v>
+      </c>
+      <c r="I240" t="n">
+        <v>6855</v>
+      </c>
+      <c r="J240" t="n">
+        <v>7280</v>
+      </c>
+      <c r="K240" t="n">
+        <v>7660</v>
+      </c>
+      <c r="L240" t="n">
+        <v>8039</v>
+      </c>
+      <c r="M240" t="n">
+        <v>8729</v>
+      </c>
+      <c r="N240" t="n">
+        <v>9270</v>
+      </c>
+      <c r="O240" t="n">
+        <v>10500</v>
+      </c>
+      <c r="P240" t="n">
+        <v>11292</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>12490</v>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S240" t="n">
+        <v>6050</v>
+      </c>
+      <c r="T240" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>141000</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>비아트론</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>10870</v>
+      </c>
+      <c r="E241" t="n">
+        <v>7536</v>
+      </c>
+      <c r="F241" t="n">
+        <v>7757</v>
+      </c>
+      <c r="G241" t="n">
+        <v>8015</v>
+      </c>
+      <c r="H241" t="n">
+        <v>8272</v>
+      </c>
+      <c r="I241" t="n">
+        <v>8420</v>
+      </c>
+      <c r="J241" t="n">
+        <v>8905</v>
+      </c>
+      <c r="K241" t="n">
+        <v>9340</v>
+      </c>
+      <c r="L241" t="n">
+        <v>9774</v>
+      </c>
+      <c r="M241" t="n">
+        <v>10561</v>
+      </c>
+      <c r="N241" t="n">
+        <v>11180</v>
+      </c>
+      <c r="O241" t="n">
+        <v>12585</v>
+      </c>
+      <c r="P241" t="n">
+        <v>13491</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>14860</v>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S241" t="n">
+        <v>7500</v>
+      </c>
+      <c r="T241" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>131290</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>티에스이</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>44600</v>
+      </c>
+      <c r="E242" t="n">
+        <v>34231</v>
+      </c>
+      <c r="F242" t="n">
+        <v>37417</v>
+      </c>
+      <c r="G242" t="n">
+        <v>41134</v>
+      </c>
+      <c r="H242" t="n">
+        <v>44851</v>
+      </c>
+      <c r="I242" t="n">
+        <v>46975</v>
+      </c>
+      <c r="J242" t="n">
+        <v>53984</v>
+      </c>
+      <c r="K242" t="n">
+        <v>60250</v>
+      </c>
+      <c r="L242" t="n">
+        <v>66515</v>
+      </c>
+      <c r="M242" t="n">
+        <v>77879</v>
+      </c>
+      <c r="N242" t="n">
+        <v>86800</v>
+      </c>
+      <c r="O242" t="n">
+        <v>107084</v>
+      </c>
+      <c r="P242" t="n">
+        <v>120146</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>139900</v>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S242" t="n">
+        <v>33700</v>
+      </c>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t>2023-03-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>066570</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>113800</v>
+      </c>
+      <c r="E243" t="n">
+        <v>78201</v>
+      </c>
+      <c r="F243" t="n">
+        <v>80607</v>
+      </c>
+      <c r="G243" t="n">
+        <v>83414</v>
+      </c>
+      <c r="H243" t="n">
+        <v>86221</v>
+      </c>
+      <c r="I243" t="n">
+        <v>87825</v>
+      </c>
+      <c r="J243" t="n">
+        <v>93118</v>
+      </c>
+      <c r="K243" t="n">
+        <v>97850</v>
+      </c>
+      <c r="L243" t="n">
+        <v>102581</v>
+      </c>
+      <c r="M243" t="n">
+        <v>111163</v>
+      </c>
+      <c r="N243" t="n">
+        <v>117900</v>
+      </c>
+      <c r="O243" t="n">
+        <v>133218</v>
+      </c>
+      <c r="P243" t="n">
+        <v>143082</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>158000</v>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S243" t="n">
+        <v>77800</v>
+      </c>
+      <c r="T243" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>251630</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>브이원텍</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>9280</v>
+      </c>
+      <c r="E244" t="n">
+        <v>5799</v>
+      </c>
+      <c r="F244" t="n">
+        <v>6038</v>
+      </c>
+      <c r="G244" t="n">
+        <v>6317</v>
+      </c>
+      <c r="H244" t="n">
+        <v>6595</v>
+      </c>
+      <c r="I244" t="n">
+        <v>6755</v>
+      </c>
+      <c r="J244" t="n">
+        <v>7280</v>
+      </c>
+      <c r="K244" t="n">
+        <v>7750</v>
+      </c>
+      <c r="L244" t="n">
+        <v>8219</v>
+      </c>
+      <c r="M244" t="n">
+        <v>9071</v>
+      </c>
+      <c r="N244" t="n">
+        <v>9740</v>
+      </c>
+      <c r="O244" t="n">
+        <v>11260</v>
+      </c>
+      <c r="P244" t="n">
+        <v>12239</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>13720</v>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S244" t="n">
+        <v>5760</v>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>121600</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>나노신소재</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>144900</v>
+      </c>
+      <c r="E245" t="n">
+        <v>68259</v>
+      </c>
+      <c r="F245" t="n">
+        <v>73413</v>
+      </c>
+      <c r="G245" t="n">
+        <v>79426</v>
+      </c>
+      <c r="H245" t="n">
+        <v>85439</v>
+      </c>
+      <c r="I245" t="n">
+        <v>88875</v>
+      </c>
+      <c r="J245" t="n">
+        <v>100213</v>
+      </c>
+      <c r="K245" t="n">
+        <v>110350</v>
+      </c>
+      <c r="L245" t="n">
+        <v>120486</v>
+      </c>
+      <c r="M245" t="n">
+        <v>138868</v>
+      </c>
+      <c r="N245" t="n">
+        <v>153300</v>
+      </c>
+      <c r="O245" t="n">
+        <v>186113</v>
+      </c>
+      <c r="P245" t="n">
+        <v>207245</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>239200</v>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S245" t="n">
+        <v>67400</v>
+      </c>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t>2022-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>036930</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>주성엔지니어링</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>16320</v>
+      </c>
+      <c r="E246" t="n">
+        <v>10514</v>
+      </c>
+      <c r="F246" t="n">
+        <v>11140</v>
+      </c>
+      <c r="G246" t="n">
+        <v>11871</v>
+      </c>
+      <c r="H246" t="n">
+        <v>12602</v>
+      </c>
+      <c r="I246" t="n">
+        <v>13020</v>
+      </c>
+      <c r="J246" t="n">
+        <v>14398</v>
+      </c>
+      <c r="K246" t="n">
+        <v>15630</v>
+      </c>
+      <c r="L246" t="n">
+        <v>16861</v>
+      </c>
+      <c r="M246" t="n">
+        <v>19096</v>
+      </c>
+      <c r="N246" t="n">
+        <v>20850</v>
+      </c>
+      <c r="O246" t="n">
+        <v>24838</v>
+      </c>
+      <c r="P246" t="n">
+        <v>27406</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>31290</v>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S246" t="n">
+        <v>10410</v>
+      </c>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t>2023-03-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>078150</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>HB테크놀러지</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>2570</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1749</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1805</v>
+      </c>
+      <c r="G247" t="n">
+        <v>1870</v>
+      </c>
+      <c r="H247" t="n">
+        <v>1935</v>
+      </c>
+      <c r="I247" t="n">
+        <v>1972</v>
+      </c>
+      <c r="J247" t="n">
+        <v>2095</v>
+      </c>
+      <c r="K247" t="n">
+        <v>2205</v>
+      </c>
+      <c r="L247" t="n">
+        <v>2314</v>
+      </c>
+      <c r="M247" t="n">
+        <v>2513</v>
+      </c>
+      <c r="N247" t="n">
+        <v>2670</v>
+      </c>
+      <c r="O247" t="n">
+        <v>3025</v>
+      </c>
+      <c r="P247" t="n">
+        <v>3254</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>3600</v>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S247" t="n">
+        <v>1740</v>
+      </c>
+      <c r="T247" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>265520</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>AP시스템</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>22350</v>
+      </c>
+      <c r="E248" t="n">
+        <v>15968</v>
+      </c>
+      <c r="F248" t="n">
+        <v>16379</v>
+      </c>
+      <c r="G248" t="n">
+        <v>16859</v>
+      </c>
+      <c r="H248" t="n">
+        <v>17338</v>
+      </c>
+      <c r="I248" t="n">
+        <v>17612</v>
+      </c>
+      <c r="J248" t="n">
+        <v>18516</v>
+      </c>
+      <c r="K248" t="n">
+        <v>19325</v>
+      </c>
+      <c r="L248" t="n">
+        <v>20133</v>
+      </c>
+      <c r="M248" t="n">
+        <v>21599</v>
+      </c>
+      <c r="N248" t="n">
+        <v>22750</v>
+      </c>
+      <c r="O248" t="n">
+        <v>25366</v>
+      </c>
+      <c r="P248" t="n">
+        <v>27051</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>29600</v>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S248" t="n">
+        <v>15900</v>
+      </c>
+      <c r="T248" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>065130</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>탑엔지니어링</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>5760</v>
+      </c>
+      <c r="E249" t="n">
+        <v>4798</v>
+      </c>
+      <c r="F249" t="n">
+        <v>4906</v>
+      </c>
+      <c r="G249" t="n">
+        <v>5033</v>
+      </c>
+      <c r="H249" t="n">
+        <v>5160</v>
+      </c>
+      <c r="I249" t="n">
+        <v>5232</v>
+      </c>
+      <c r="J249" t="n">
+        <v>5471</v>
+      </c>
+      <c r="K249" t="n">
+        <v>5685</v>
+      </c>
+      <c r="L249" t="n">
+        <v>5898</v>
+      </c>
+      <c r="M249" t="n">
+        <v>6285</v>
+      </c>
+      <c r="N249" t="n">
+        <v>6590</v>
+      </c>
+      <c r="O249" t="n">
+        <v>7281</v>
+      </c>
+      <c r="P249" t="n">
+        <v>7726</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>8400</v>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S249" t="n">
+        <v>4780</v>
+      </c>
+      <c r="T249" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>122640</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>예스티</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>10310</v>
+      </c>
+      <c r="E250" t="n">
+        <v>6213</v>
+      </c>
+      <c r="F250" t="n">
+        <v>6473</v>
+      </c>
+      <c r="G250" t="n">
+        <v>6776</v>
+      </c>
+      <c r="H250" t="n">
+        <v>7079</v>
+      </c>
+      <c r="I250" t="n">
+        <v>7252</v>
+      </c>
+      <c r="J250" t="n">
+        <v>7824</v>
+      </c>
+      <c r="K250" t="n">
+        <v>8335</v>
+      </c>
+      <c r="L250" t="n">
+        <v>8845</v>
+      </c>
+      <c r="M250" t="n">
+        <v>9772</v>
+      </c>
+      <c r="N250" t="n">
+        <v>10500</v>
+      </c>
+      <c r="O250" t="n">
+        <v>12154</v>
+      </c>
+      <c r="P250" t="n">
+        <v>13219</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>14830</v>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S250" t="n">
+        <v>6170</v>
+      </c>
+      <c r="T250" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>096870</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>엘디티</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>3770</v>
+      </c>
+      <c r="E251" t="n">
+        <v>3238</v>
+      </c>
+      <c r="F251" t="n">
+        <v>3318</v>
+      </c>
+      <c r="G251" t="n">
+        <v>3412</v>
+      </c>
+      <c r="H251" t="n">
+        <v>3506</v>
+      </c>
+      <c r="I251" t="n">
+        <v>3560</v>
+      </c>
+      <c r="J251" t="n">
+        <v>3736</v>
+      </c>
+      <c r="K251" t="n">
+        <v>3895</v>
+      </c>
+      <c r="L251" t="n">
+        <v>4053</v>
+      </c>
+      <c r="M251" t="n">
+        <v>4339</v>
+      </c>
+      <c r="N251" t="n">
+        <v>4565</v>
+      </c>
+      <c r="O251" t="n">
+        <v>5076</v>
+      </c>
+      <c r="P251" t="n">
+        <v>5406</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>5905</v>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S251" t="n">
+        <v>3225</v>
+      </c>
+      <c r="T251" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>187870</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>디바이스이엔지</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>20500</v>
+      </c>
+      <c r="E252" t="n">
+        <v>13878</v>
+      </c>
+      <c r="F252" t="n">
+        <v>14349</v>
+      </c>
+      <c r="G252" t="n">
+        <v>14899</v>
+      </c>
+      <c r="H252" t="n">
+        <v>15448</v>
+      </c>
+      <c r="I252" t="n">
+        <v>15762</v>
+      </c>
+      <c r="J252" t="n">
+        <v>16798</v>
+      </c>
+      <c r="K252" t="n">
+        <v>17725</v>
+      </c>
+      <c r="L252" t="n">
+        <v>18651</v>
+      </c>
+      <c r="M252" t="n">
+        <v>20331</v>
+      </c>
+      <c r="N252" t="n">
+        <v>21650</v>
+      </c>
+      <c r="O252" t="n">
+        <v>24648</v>
+      </c>
+      <c r="P252" t="n">
+        <v>26579</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>29500</v>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S252" t="n">
+        <v>13800</v>
+      </c>
+      <c r="T252" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>238490</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>힘스</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>7150</v>
+      </c>
+      <c r="E253" t="n">
+        <v>5753</v>
+      </c>
+      <c r="F253" t="n">
+        <v>5893</v>
+      </c>
+      <c r="G253" t="n">
+        <v>6057</v>
+      </c>
+      <c r="H253" t="n">
+        <v>6221</v>
+      </c>
+      <c r="I253" t="n">
+        <v>6315</v>
+      </c>
+      <c r="J253" t="n">
+        <v>6623</v>
+      </c>
+      <c r="K253" t="n">
+        <v>6900</v>
+      </c>
+      <c r="L253" t="n">
+        <v>7176</v>
+      </c>
+      <c r="M253" t="n">
+        <v>7676</v>
+      </c>
+      <c r="N253" t="n">
+        <v>8070</v>
+      </c>
+      <c r="O253" t="n">
+        <v>8963</v>
+      </c>
+      <c r="P253" t="n">
+        <v>9539</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>10410</v>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S253" t="n">
+        <v>5730</v>
+      </c>
+      <c r="T253" t="inlineStr">
+        <is>
+          <t>2022-10-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>108230</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>톱텍</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>10100</v>
+      </c>
+      <c r="E254" t="n">
+        <v>5642</v>
+      </c>
+      <c r="F254" t="n">
+        <v>5959</v>
+      </c>
+      <c r="G254" t="n">
+        <v>6329</v>
+      </c>
+      <c r="H254" t="n">
+        <v>6698</v>
+      </c>
+      <c r="I254" t="n">
+        <v>6910</v>
+      </c>
+      <c r="J254" t="n">
+        <v>7606</v>
+      </c>
+      <c r="K254" t="n">
+        <v>8230</v>
+      </c>
+      <c r="L254" t="n">
+        <v>8853</v>
+      </c>
+      <c r="M254" t="n">
+        <v>9982</v>
+      </c>
+      <c r="N254" t="n">
+        <v>10870</v>
+      </c>
+      <c r="O254" t="n">
+        <v>12886</v>
+      </c>
+      <c r="P254" t="n">
+        <v>14185</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>16150</v>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S254" t="n">
+        <v>5590</v>
+      </c>
+      <c r="T254" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>083500</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>에프엔에스테크</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>10290</v>
+      </c>
+      <c r="E255" t="n">
+        <v>6753</v>
+      </c>
+      <c r="F255" t="n">
+        <v>7013</v>
+      </c>
+      <c r="G255" t="n">
+        <v>7317</v>
+      </c>
+      <c r="H255" t="n">
+        <v>7621</v>
+      </c>
+      <c r="I255" t="n">
+        <v>7795</v>
+      </c>
+      <c r="J255" t="n">
+        <v>8367</v>
+      </c>
+      <c r="K255" t="n">
+        <v>8880</v>
+      </c>
+      <c r="L255" t="n">
+        <v>9392</v>
+      </c>
+      <c r="M255" t="n">
+        <v>10320</v>
+      </c>
+      <c r="N255" t="n">
+        <v>11050</v>
+      </c>
+      <c r="O255" t="n">
+        <v>12707</v>
+      </c>
+      <c r="P255" t="n">
+        <v>13775</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>15390</v>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S255" t="n">
+        <v>6710</v>
+      </c>
+      <c r="T255" t="inlineStr">
+        <is>
+          <t>2023-01-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>040910</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>아이씨디</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>13230</v>
+      </c>
+      <c r="E256" t="n">
+        <v>7557</v>
+      </c>
+      <c r="F256" t="n">
+        <v>7901</v>
+      </c>
+      <c r="G256" t="n">
+        <v>8302</v>
+      </c>
+      <c r="H256" t="n">
+        <v>8703</v>
+      </c>
+      <c r="I256" t="n">
+        <v>8932</v>
+      </c>
+      <c r="J256" t="n">
+        <v>9688</v>
+      </c>
+      <c r="K256" t="n">
+        <v>10365</v>
+      </c>
+      <c r="L256" t="n">
+        <v>11041</v>
+      </c>
+      <c r="M256" t="n">
+        <v>12267</v>
+      </c>
+      <c r="N256" t="n">
+        <v>13230</v>
+      </c>
+      <c r="O256" t="n">
+        <v>15418</v>
+      </c>
+      <c r="P256" t="n">
+        <v>16828</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>18960</v>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S256" t="n">
+        <v>7500</v>
+      </c>
+      <c r="T256" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>063760</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>이엘피</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>6830</v>
+      </c>
+      <c r="E257" t="n">
+        <v>3318</v>
+      </c>
+      <c r="F257" t="n">
+        <v>3546</v>
+      </c>
+      <c r="G257" t="n">
+        <v>3813</v>
+      </c>
+      <c r="H257" t="n">
+        <v>4080</v>
+      </c>
+      <c r="I257" t="n">
+        <v>4232</v>
+      </c>
+      <c r="J257" t="n">
+        <v>4735</v>
+      </c>
+      <c r="K257" t="n">
+        <v>5185</v>
+      </c>
+      <c r="L257" t="n">
+        <v>5634</v>
+      </c>
+      <c r="M257" t="n">
+        <v>6449</v>
+      </c>
+      <c r="N257" t="n">
+        <v>7090</v>
+      </c>
+      <c r="O257" t="n">
+        <v>8545</v>
+      </c>
+      <c r="P257" t="n">
+        <v>9482</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>10900</v>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S257" t="n">
+        <v>3280</v>
+      </c>
+      <c r="T257" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>240810</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>원익IPS</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E258" t="n">
+        <v>22421</v>
+      </c>
+      <c r="F258" t="n">
+        <v>23447</v>
+      </c>
+      <c r="G258" t="n">
+        <v>24644</v>
+      </c>
+      <c r="H258" t="n">
+        <v>25841</v>
+      </c>
+      <c r="I258" t="n">
+        <v>26525</v>
+      </c>
+      <c r="J258" t="n">
+        <v>28782</v>
+      </c>
+      <c r="K258" t="n">
+        <v>30800</v>
+      </c>
+      <c r="L258" t="n">
+        <v>32817</v>
+      </c>
+      <c r="M258" t="n">
+        <v>36477</v>
+      </c>
+      <c r="N258" t="n">
+        <v>39350</v>
+      </c>
+      <c r="O258" t="n">
+        <v>45882</v>
+      </c>
+      <c r="P258" t="n">
+        <v>50088</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>56450</v>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S258" t="n">
+        <v>22250</v>
+      </c>
+      <c r="T258" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>083930</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>아바코</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>17490</v>
+      </c>
+      <c r="E259" t="n">
+        <v>10065</v>
+      </c>
+      <c r="F259" t="n">
+        <v>10515</v>
+      </c>
+      <c r="G259" t="n">
+        <v>11040</v>
+      </c>
+      <c r="H259" t="n">
+        <v>11565</v>
+      </c>
+      <c r="I259" t="n">
+        <v>11865</v>
+      </c>
+      <c r="J259" t="n">
+        <v>12855</v>
+      </c>
+      <c r="K259" t="n">
+        <v>13740</v>
+      </c>
+      <c r="L259" t="n">
+        <v>14625</v>
+      </c>
+      <c r="M259" t="n">
+        <v>16230</v>
+      </c>
+      <c r="N259" t="n">
+        <v>17490</v>
+      </c>
+      <c r="O259" t="n">
+        <v>20355</v>
+      </c>
+      <c r="P259" t="n">
+        <v>22200</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>24990</v>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S259" t="n">
+        <v>9990</v>
+      </c>
+      <c r="T259" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>051910</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>698000</v>
+      </c>
+      <c r="E260" t="n">
+        <v>502400</v>
+      </c>
+      <c r="F260" t="n">
+        <v>516800</v>
+      </c>
+      <c r="G260" t="n">
+        <v>533600</v>
+      </c>
+      <c r="H260" t="n">
+        <v>550400</v>
+      </c>
+      <c r="I260" t="n">
+        <v>560000</v>
+      </c>
+      <c r="J260" t="n">
+        <v>591680</v>
+      </c>
+      <c r="K260" t="n">
+        <v>620000</v>
+      </c>
+      <c r="L260" t="n">
+        <v>648320</v>
+      </c>
+      <c r="M260" t="n">
+        <v>699680</v>
+      </c>
+      <c r="N260" t="n">
+        <v>740000</v>
+      </c>
+      <c r="O260" t="n">
+        <v>831680</v>
+      </c>
+      <c r="P260" t="n">
+        <v>890720</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>980000</v>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S260" t="n">
+        <v>500000</v>
+      </c>
+      <c r="T260" t="inlineStr">
+        <is>
+          <t>2022-07-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>104830</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>원익머트리얼즈</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>28700</v>
+      </c>
+      <c r="E261" t="n">
+        <v>24703</v>
+      </c>
+      <c r="F261" t="n">
+        <v>25621</v>
+      </c>
+      <c r="G261" t="n">
+        <v>26692</v>
+      </c>
+      <c r="H261" t="n">
+        <v>27763</v>
+      </c>
+      <c r="I261" t="n">
+        <v>28375</v>
+      </c>
+      <c r="J261" t="n">
+        <v>30394</v>
+      </c>
+      <c r="K261" t="n">
+        <v>32200</v>
+      </c>
+      <c r="L261" t="n">
+        <v>34005</v>
+      </c>
+      <c r="M261" t="n">
+        <v>37279</v>
+      </c>
+      <c r="N261" t="n">
+        <v>39850</v>
+      </c>
+      <c r="O261" t="n">
+        <v>45694</v>
+      </c>
+      <c r="P261" t="n">
+        <v>49458</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>55150</v>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S261" t="n">
+        <v>24550</v>
+      </c>
+      <c r="T261" t="inlineStr">
+        <is>
+          <t>2023-03-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>083310</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>엘오티베큠</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>13530</v>
+      </c>
+      <c r="E262" t="n">
+        <v>8703</v>
+      </c>
+      <c r="F262" t="n">
+        <v>9021</v>
+      </c>
+      <c r="G262" t="n">
+        <v>9392</v>
+      </c>
+      <c r="H262" t="n">
+        <v>9763</v>
+      </c>
+      <c r="I262" t="n">
+        <v>9975</v>
+      </c>
+      <c r="J262" t="n">
+        <v>10674</v>
+      </c>
+      <c r="K262" t="n">
+        <v>11300</v>
+      </c>
+      <c r="L262" t="n">
+        <v>11925</v>
+      </c>
+      <c r="M262" t="n">
+        <v>13059</v>
+      </c>
+      <c r="N262" t="n">
+        <v>13950</v>
+      </c>
+      <c r="O262" t="n">
+        <v>15974</v>
+      </c>
+      <c r="P262" t="n">
+        <v>17278</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>19250</v>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S262" t="n">
+        <v>8650</v>
+      </c>
+      <c r="T262" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>056190</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>에스에프에이</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>39350</v>
+      </c>
+      <c r="E263" t="n">
+        <v>34937</v>
+      </c>
+      <c r="F263" t="n">
+        <v>35462</v>
+      </c>
+      <c r="G263" t="n">
+        <v>36075</v>
+      </c>
+      <c r="H263" t="n">
+        <v>36687</v>
+      </c>
+      <c r="I263" t="n">
+        <v>37037</v>
+      </c>
+      <c r="J263" t="n">
+        <v>38192</v>
+      </c>
+      <c r="K263" t="n">
+        <v>39225</v>
+      </c>
+      <c r="L263" t="n">
+        <v>40257</v>
+      </c>
+      <c r="M263" t="n">
+        <v>42130</v>
+      </c>
+      <c r="N263" t="n">
+        <v>43600</v>
+      </c>
+      <c r="O263" t="n">
+        <v>46942</v>
+      </c>
+      <c r="P263" t="n">
+        <v>49095</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>52350</v>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S263" t="n">
+        <v>34850</v>
+      </c>
+      <c r="T263" t="inlineStr">
+        <is>
+          <t>2023-03-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>005930</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>63400</v>
+      </c>
+      <c r="E264" t="n">
+        <v>52742</v>
+      </c>
+      <c r="F264" t="n">
+        <v>53594</v>
+      </c>
+      <c r="G264" t="n">
+        <v>54588</v>
+      </c>
+      <c r="H264" t="n">
+        <v>55582</v>
+      </c>
+      <c r="I264" t="n">
+        <v>56150</v>
+      </c>
+      <c r="J264" t="n">
+        <v>58024</v>
+      </c>
+      <c r="K264" t="n">
+        <v>59700</v>
+      </c>
+      <c r="L264" t="n">
+        <v>61375</v>
+      </c>
+      <c r="M264" t="n">
+        <v>64414</v>
+      </c>
+      <c r="N264" t="n">
+        <v>66800</v>
+      </c>
+      <c r="O264" t="n">
+        <v>72224</v>
+      </c>
+      <c r="P264" t="n">
+        <v>75717</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>81000</v>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S264" t="n">
+        <v>52600</v>
+      </c>
+      <c r="T264" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>155650</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>와이엠씨</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>6600</v>
+      </c>
+      <c r="E265" t="n">
+        <v>5290</v>
+      </c>
+      <c r="F265" t="n">
+        <v>5411</v>
+      </c>
+      <c r="G265" t="n">
+        <v>5552</v>
+      </c>
+      <c r="H265" t="n">
+        <v>5694</v>
+      </c>
+      <c r="I265" t="n">
+        <v>5775</v>
+      </c>
+      <c r="J265" t="n">
+        <v>6041</v>
+      </c>
+      <c r="K265" t="n">
+        <v>6280</v>
+      </c>
+      <c r="L265" t="n">
+        <v>6518</v>
+      </c>
+      <c r="M265" t="n">
+        <v>6950</v>
+      </c>
+      <c r="N265" t="n">
+        <v>7290</v>
+      </c>
+      <c r="O265" t="n">
+        <v>8061</v>
+      </c>
+      <c r="P265" t="n">
+        <v>8558</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>9310</v>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S265" t="n">
+        <v>5270</v>
+      </c>
+      <c r="T265" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>080000</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>에스엔유</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>4750</v>
+      </c>
+      <c r="E266" t="n">
+        <v>2177</v>
+      </c>
+      <c r="F266" t="n">
+        <v>2343</v>
+      </c>
+      <c r="G266" t="n">
+        <v>2536</v>
+      </c>
+      <c r="H266" t="n">
+        <v>2729</v>
+      </c>
+      <c r="I266" t="n">
+        <v>2840</v>
+      </c>
+      <c r="J266" t="n">
+        <v>3204</v>
+      </c>
+      <c r="K266" t="n">
+        <v>3530</v>
+      </c>
+      <c r="L266" t="n">
+        <v>3855</v>
+      </c>
+      <c r="M266" t="n">
+        <v>4446</v>
+      </c>
+      <c r="N266" t="n">
+        <v>4910</v>
+      </c>
+      <c r="O266" t="n">
+        <v>5964</v>
+      </c>
+      <c r="P266" t="n">
+        <v>6643</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>7670</v>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S266" t="n">
+        <v>2150</v>
+      </c>
+      <c r="T266" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>068790</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>DMS</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>6930</v>
+      </c>
+      <c r="E267" t="n">
+        <v>4365</v>
+      </c>
+      <c r="F267" t="n">
+        <v>4521</v>
+      </c>
+      <c r="G267" t="n">
+        <v>4702</v>
+      </c>
+      <c r="H267" t="n">
+        <v>4883</v>
+      </c>
+      <c r="I267" t="n">
+        <v>4987</v>
+      </c>
+      <c r="J267" t="n">
+        <v>5329</v>
+      </c>
+      <c r="K267" t="n">
+        <v>5635</v>
+      </c>
+      <c r="L267" t="n">
+        <v>5940</v>
+      </c>
+      <c r="M267" t="n">
+        <v>6494</v>
+      </c>
+      <c r="N267" t="n">
+        <v>6930</v>
+      </c>
+      <c r="O267" t="n">
+        <v>7919</v>
+      </c>
+      <c r="P267" t="n">
+        <v>8556</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>9520</v>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S267" t="n">
+        <v>4340</v>
+      </c>
+      <c r="T267" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>088130</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>동아엘텍</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>9740</v>
+      </c>
+      <c r="E268" t="n">
+        <v>6063</v>
+      </c>
+      <c r="F268" t="n">
+        <v>6325</v>
+      </c>
+      <c r="G268" t="n">
+        <v>6631</v>
+      </c>
+      <c r="H268" t="n">
+        <v>6937</v>
+      </c>
+      <c r="I268" t="n">
+        <v>7112</v>
+      </c>
+      <c r="J268" t="n">
+        <v>7689</v>
+      </c>
+      <c r="K268" t="n">
+        <v>8205</v>
+      </c>
+      <c r="L268" t="n">
+        <v>8720</v>
+      </c>
+      <c r="M268" t="n">
+        <v>9655</v>
+      </c>
+      <c r="N268" t="n">
+        <v>10390</v>
+      </c>
+      <c r="O268" t="n">
+        <v>12059</v>
+      </c>
+      <c r="P268" t="n">
+        <v>13134</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>14760</v>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S268" t="n">
+        <v>6020</v>
+      </c>
+      <c r="T268" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>049950</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>미래컴퍼니</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>43950</v>
+      </c>
+      <c r="E269" t="n">
+        <v>17624</v>
+      </c>
+      <c r="F269" t="n">
+        <v>19568</v>
+      </c>
+      <c r="G269" t="n">
+        <v>21836</v>
+      </c>
+      <c r="H269" t="n">
+        <v>24104</v>
+      </c>
+      <c r="I269" t="n">
+        <v>25400</v>
+      </c>
+      <c r="J269" t="n">
+        <v>29676</v>
+      </c>
+      <c r="K269" t="n">
+        <v>33500</v>
+      </c>
+      <c r="L269" t="n">
+        <v>37323</v>
+      </c>
+      <c r="M269" t="n">
+        <v>44256</v>
+      </c>
+      <c r="N269" t="n">
+        <v>49700</v>
+      </c>
+      <c r="O269" t="n">
+        <v>62076</v>
+      </c>
+      <c r="P269" t="n">
+        <v>70047</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>82100</v>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S269" t="n">
+        <v>17300</v>
+      </c>
+      <c r="T269" t="inlineStr">
+        <is>
+          <t>2023-01-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>034220</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>LG디스플레이</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>16190</v>
+      </c>
+      <c r="E270" t="n">
+        <v>12003</v>
+      </c>
+      <c r="F270" t="n">
+        <v>12324</v>
+      </c>
+      <c r="G270" t="n">
+        <v>12699</v>
+      </c>
+      <c r="H270" t="n">
+        <v>13073</v>
+      </c>
+      <c r="I270" t="n">
+        <v>13287</v>
+      </c>
+      <c r="J270" t="n">
+        <v>13993</v>
+      </c>
+      <c r="K270" t="n">
+        <v>14625</v>
+      </c>
+      <c r="L270" t="n">
+        <v>15256</v>
+      </c>
+      <c r="M270" t="n">
+        <v>16401</v>
+      </c>
+      <c r="N270" t="n">
+        <v>17300</v>
+      </c>
+      <c r="O270" t="n">
+        <v>19343</v>
+      </c>
+      <c r="P270" t="n">
+        <v>20659</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>22650</v>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S270" t="n">
+        <v>11950</v>
+      </c>
+      <c r="T270" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>009310</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>참엔지니어링</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>736</v>
+      </c>
+      <c r="E271" t="n">
+        <v>670</v>
+      </c>
+      <c r="F271" t="n">
+        <v>702</v>
+      </c>
+      <c r="G271" t="n">
+        <v>739</v>
+      </c>
+      <c r="H271" t="n">
+        <v>776</v>
+      </c>
+      <c r="I271" t="n">
+        <v>797</v>
+      </c>
+      <c r="J271" t="n">
+        <v>867</v>
+      </c>
+      <c r="K271" t="n">
+        <v>930</v>
+      </c>
+      <c r="L271" t="n">
+        <v>992</v>
+      </c>
+      <c r="M271" t="n">
+        <v>1105</v>
+      </c>
+      <c r="N271" t="n">
+        <v>1195</v>
+      </c>
+      <c r="O271" t="n">
+        <v>1397</v>
+      </c>
+      <c r="P271" t="n">
+        <v>1527</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>1725</v>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S271" t="n">
+        <v>665</v>
+      </c>
+      <c r="T271" t="inlineStr">
+        <is>
+          <t>2023-03-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>213420</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>덕산네오룩스</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>48500</v>
+      </c>
+      <c r="E272" t="n">
+        <v>29508</v>
+      </c>
+      <c r="F272" t="n">
+        <v>30756</v>
+      </c>
+      <c r="G272" t="n">
+        <v>32212</v>
+      </c>
+      <c r="H272" t="n">
+        <v>33668</v>
+      </c>
+      <c r="I272" t="n">
+        <v>34500</v>
+      </c>
+      <c r="J272" t="n">
+        <v>37245</v>
+      </c>
+      <c r="K272" t="n">
+        <v>39700</v>
+      </c>
+      <c r="L272" t="n">
+        <v>42154</v>
+      </c>
+      <c r="M272" t="n">
+        <v>46605</v>
+      </c>
+      <c r="N272" t="n">
+        <v>50100</v>
+      </c>
+      <c r="O272" t="n">
+        <v>58045</v>
+      </c>
+      <c r="P272" t="n">
+        <v>63162</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>70900</v>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S272" t="n">
+        <v>29300</v>
+      </c>
+      <c r="T272" t="inlineStr">
+        <is>
+          <t>2022-07-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>131760</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>파인텍</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>1489</v>
+      </c>
+      <c r="E273" t="n">
+        <v>1002</v>
+      </c>
+      <c r="F273" t="n">
+        <v>1032</v>
+      </c>
+      <c r="G273" t="n">
+        <v>1066</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1101</v>
+      </c>
+      <c r="I273" t="n">
+        <v>1121</v>
+      </c>
+      <c r="J273" t="n">
+        <v>1185</v>
+      </c>
+      <c r="K273" t="n">
+        <v>1244</v>
+      </c>
+      <c r="L273" t="n">
+        <v>1302</v>
+      </c>
+      <c r="M273" t="n">
+        <v>1407</v>
+      </c>
+      <c r="N273" t="n">
+        <v>1490</v>
+      </c>
+      <c r="O273" t="n">
+        <v>1677</v>
+      </c>
+      <c r="P273" t="n">
+        <v>1798</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>1982</v>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S273" t="n">
+        <v>998</v>
+      </c>
+      <c r="T273" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>054620</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>APS홀딩스</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>14890</v>
+      </c>
+      <c r="E274" t="n">
+        <v>7946</v>
+      </c>
+      <c r="F274" t="n">
+        <v>8468</v>
+      </c>
+      <c r="G274" t="n">
+        <v>9076</v>
+      </c>
+      <c r="H274" t="n">
+        <v>9684</v>
+      </c>
+      <c r="I274" t="n">
+        <v>10032</v>
+      </c>
+      <c r="J274" t="n">
+        <v>11179</v>
+      </c>
+      <c r="K274" t="n">
+        <v>12205</v>
+      </c>
+      <c r="L274" t="n">
+        <v>13230</v>
+      </c>
+      <c r="M274" t="n">
+        <v>15090</v>
+      </c>
+      <c r="N274" t="n">
+        <v>16550</v>
+      </c>
+      <c r="O274" t="n">
+        <v>19869</v>
+      </c>
+      <c r="P274" t="n">
+        <v>22007</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>25240</v>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S274" t="n">
+        <v>7860</v>
+      </c>
+      <c r="T274" t="inlineStr">
+        <is>
+          <t>2022-07-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>256940</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>케이피에스</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>10430</v>
+      </c>
+      <c r="E275" t="n">
+        <v>4832</v>
+      </c>
+      <c r="F275" t="n">
+        <v>5207</v>
+      </c>
+      <c r="G275" t="n">
+        <v>5645</v>
+      </c>
+      <c r="H275" t="n">
+        <v>6082</v>
+      </c>
+      <c r="I275" t="n">
+        <v>6332</v>
+      </c>
+      <c r="J275" t="n">
+        <v>7157</v>
+      </c>
+      <c r="K275" t="n">
+        <v>7895</v>
+      </c>
+      <c r="L275" t="n">
+        <v>8632</v>
+      </c>
+      <c r="M275" t="n">
+        <v>9970</v>
+      </c>
+      <c r="N275" t="n">
+        <v>11020</v>
+      </c>
+      <c r="O275" t="n">
+        <v>13407</v>
+      </c>
+      <c r="P275" t="n">
+        <v>14945</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>17270</v>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S275" t="n">
+        <v>4770</v>
+      </c>
+      <c r="T275" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>177350</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>베셀</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>4600</v>
+      </c>
+      <c r="E276" t="n">
+        <v>4295</v>
+      </c>
+      <c r="F276" t="n">
+        <v>4569</v>
+      </c>
+      <c r="G276" t="n">
+        <v>4889</v>
+      </c>
+      <c r="H276" t="n">
+        <v>5209</v>
+      </c>
+      <c r="I276" t="n">
+        <v>5392</v>
+      </c>
+      <c r="J276" t="n">
+        <v>5995</v>
+      </c>
+      <c r="K276" t="n">
+        <v>6535</v>
+      </c>
+      <c r="L276" t="n">
+        <v>7074</v>
+      </c>
+      <c r="M276" t="n">
+        <v>8052</v>
+      </c>
+      <c r="N276" t="n">
+        <v>8820</v>
+      </c>
+      <c r="O276" t="n">
+        <v>10565</v>
+      </c>
+      <c r="P276" t="n">
+        <v>11689</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>13390</v>
+      </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S276" t="n">
+        <v>4250</v>
+      </c>
+      <c r="T276" t="inlineStr">
+        <is>
+          <t>2023-03-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>090470</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>제이스텍</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>10380</v>
+      </c>
+      <c r="E277" t="n">
+        <v>5224</v>
+      </c>
+      <c r="F277" t="n">
+        <v>5608</v>
+      </c>
+      <c r="G277" t="n">
+        <v>6056</v>
+      </c>
+      <c r="H277" t="n">
+        <v>6504</v>
+      </c>
+      <c r="I277" t="n">
+        <v>6760</v>
+      </c>
+      <c r="J277" t="n">
+        <v>7604</v>
+      </c>
+      <c r="K277" t="n">
+        <v>8360</v>
+      </c>
+      <c r="L277" t="n">
+        <v>9115</v>
+      </c>
+      <c r="M277" t="n">
+        <v>10484</v>
+      </c>
+      <c r="N277" t="n">
+        <v>11560</v>
+      </c>
+      <c r="O277" t="n">
+        <v>14004</v>
+      </c>
+      <c r="P277" t="n">
+        <v>15579</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>17960</v>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S277" t="n">
+        <v>5160</v>
+      </c>
+      <c r="T277" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>059100</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>아이컴포넌트</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>6900</v>
+      </c>
+      <c r="E278" t="n">
+        <v>5841</v>
+      </c>
+      <c r="F278" t="n">
+        <v>5972</v>
+      </c>
+      <c r="G278" t="n">
+        <v>6125</v>
+      </c>
+      <c r="H278" t="n">
+        <v>6277</v>
+      </c>
+      <c r="I278" t="n">
+        <v>6365</v>
+      </c>
+      <c r="J278" t="n">
+        <v>6652</v>
+      </c>
+      <c r="K278" t="n">
+        <v>6910</v>
+      </c>
+      <c r="L278" t="n">
+        <v>7167</v>
+      </c>
+      <c r="M278" t="n">
+        <v>7633</v>
+      </c>
+      <c r="N278" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O278" t="n">
+        <v>8832</v>
+      </c>
+      <c r="P278" t="n">
+        <v>9369</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>10180</v>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S278" t="n">
+        <v>5820</v>
+      </c>
+      <c r="T278" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>090360</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>로보스타</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>42250</v>
+      </c>
+      <c r="E279" t="n">
+        <v>16818</v>
+      </c>
+      <c r="F279" t="n">
+        <v>18429</v>
+      </c>
+      <c r="G279" t="n">
+        <v>20309</v>
+      </c>
+      <c r="H279" t="n">
+        <v>22188</v>
+      </c>
+      <c r="I279" t="n">
+        <v>23262</v>
+      </c>
+      <c r="J279" t="n">
+        <v>26806</v>
+      </c>
+      <c r="K279" t="n">
+        <v>29975</v>
+      </c>
+      <c r="L279" t="n">
+        <v>33143</v>
+      </c>
+      <c r="M279" t="n">
+        <v>38889</v>
+      </c>
+      <c r="N279" t="n">
+        <v>43400</v>
+      </c>
+      <c r="O279" t="n">
+        <v>53656</v>
+      </c>
+      <c r="P279" t="n">
+        <v>60261</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>70250</v>
+      </c>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="S279" t="n">
+        <v>16550</v>
+      </c>
+      <c r="T279" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -17106,7 +20706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S229"/>
+  <dimension ref="A1:S279"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -32953,6 +36553,3456 @@
         </is>
       </c>
     </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>255440</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>야스</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>12450</v>
+      </c>
+      <c r="E230" t="n">
+        <v>6340</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>13260</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>2023-03-29</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>14060</v>
+      </c>
+      <c r="J230" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K230" t="n">
+        <v>8285</v>
+      </c>
+      <c r="L230" t="n">
+        <v>150.27</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O230" t="n">
+        <v>8285</v>
+      </c>
+      <c r="P230" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>043590</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>크로바하이텍</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>1911</v>
+      </c>
+      <c r="E231" t="n">
+        <v>935</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2023-03-14</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>3900</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>4055</v>
+      </c>
+      <c r="J231" t="n">
+        <v>920</v>
+      </c>
+      <c r="K231" t="n">
+        <v>1259</v>
+      </c>
+      <c r="L231" t="n">
+        <v>151.77</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="O231" t="n">
+        <v>1259</v>
+      </c>
+      <c r="P231" t="n">
+        <v>151</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>079950</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>인베니아</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>2080</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1306</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2023-03-23</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>2550</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>2585</v>
+      </c>
+      <c r="J232" t="n">
+        <v>1300</v>
+      </c>
+      <c r="K232" t="n">
+        <v>1561</v>
+      </c>
+      <c r="L232" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>가을1</t>
+        </is>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O232" t="n">
+        <v>1561</v>
+      </c>
+      <c r="P232" t="n">
+        <v>133</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>317330</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>덕산테코피아</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>20500</v>
+      </c>
+      <c r="E233" t="n">
+        <v>13250</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2023-01-02</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>22950</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>23200</v>
+      </c>
+      <c r="J233" t="n">
+        <v>12950</v>
+      </c>
+      <c r="K233" t="n">
+        <v>16227</v>
+      </c>
+      <c r="L233" t="n">
+        <v>126.33</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O233" t="n">
+        <v>16227</v>
+      </c>
+      <c r="P233" t="n">
+        <v>126</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>171090</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>선익시스템</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>36700</v>
+      </c>
+      <c r="E234" t="n">
+        <v>12950</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2022-10-28</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>38400</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>2023-03-29</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>39550</v>
+      </c>
+      <c r="J234" t="n">
+        <v>12750</v>
+      </c>
+      <c r="K234" t="n">
+        <v>20739</v>
+      </c>
+      <c r="L234" t="n">
+        <v>176.96</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O234" t="n">
+        <v>20739</v>
+      </c>
+      <c r="P234" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>144960</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>뉴파워프라즈마</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>5180</v>
+      </c>
+      <c r="E235" t="n">
+        <v>3240</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>5280</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>2023-03-29</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>5420</v>
+      </c>
+      <c r="J235" t="n">
+        <v>3220</v>
+      </c>
+      <c r="K235" t="n">
+        <v>4002</v>
+      </c>
+      <c r="L235" t="n">
+        <v>129.41</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O235" t="n">
+        <v>4002</v>
+      </c>
+      <c r="P235" t="n">
+        <v>129</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>143540</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>영우디에스피</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>1463</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1135</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>2022-12-23</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>2165</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>2285</v>
+      </c>
+      <c r="J236" t="n">
+        <v>1120</v>
+      </c>
+      <c r="K236" t="n">
+        <v>1393</v>
+      </c>
+      <c r="L236" t="n">
+        <v>105.01</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="O236" t="n">
+        <v>1393</v>
+      </c>
+      <c r="P236" t="n">
+        <v>105</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>161580</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>필옵틱스</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>10390</v>
+      </c>
+      <c r="E237" t="n">
+        <v>6680</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>2022-07-12</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>10700</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>2023-03-29</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>11250</v>
+      </c>
+      <c r="J237" t="n">
+        <v>6590</v>
+      </c>
+      <c r="K237" t="n">
+        <v>8051</v>
+      </c>
+      <c r="L237" t="n">
+        <v>129.05</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O237" t="n">
+        <v>8051</v>
+      </c>
+      <c r="P237" t="n">
+        <v>129</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>272290</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>이녹스첨단소재</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>43100</v>
+      </c>
+      <c r="E238" t="n">
+        <v>26200</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>44100</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>45000</v>
+      </c>
+      <c r="J238" t="n">
+        <v>25800</v>
+      </c>
+      <c r="K238" t="n">
+        <v>32303</v>
+      </c>
+      <c r="L238" t="n">
+        <v>133.42</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>가을1</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O238" t="n">
+        <v>32303</v>
+      </c>
+      <c r="P238" t="n">
+        <v>133</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>171010</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>램테크놀러지</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E239" t="n">
+        <v>5270</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>2022-10-21</t>
+        </is>
+      </c>
+      <c r="G239" t="n">
+        <v>7770</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>2022-08-08</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>7790</v>
+      </c>
+      <c r="J239" t="n">
+        <v>5220</v>
+      </c>
+      <c r="K239" t="n">
+        <v>5860</v>
+      </c>
+      <c r="L239" t="n">
+        <v>102.37</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="O239" t="n">
+        <v>5860</v>
+      </c>
+      <c r="P239" t="n">
+        <v>102</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>114810</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>한솔아이원스</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>7800</v>
+      </c>
+      <c r="E240" t="n">
+        <v>6050</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>9270</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>9600</v>
+      </c>
+      <c r="J240" t="n">
+        <v>5960</v>
+      </c>
+      <c r="K240" t="n">
+        <v>7246</v>
+      </c>
+      <c r="L240" t="n">
+        <v>107.64</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O240" t="n">
+        <v>7246</v>
+      </c>
+      <c r="P240" t="n">
+        <v>107</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>141000</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>비아트론</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>10870</v>
+      </c>
+      <c r="E241" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="G241" t="n">
+        <v>11180</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>2023-03-29</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>11840</v>
+      </c>
+      <c r="J241" t="n">
+        <v>7380</v>
+      </c>
+      <c r="K241" t="n">
+        <v>9049</v>
+      </c>
+      <c r="L241" t="n">
+        <v>120.12</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O241" t="n">
+        <v>9049</v>
+      </c>
+      <c r="P241" t="n">
+        <v>120</v>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>131290</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>티에스이</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>44600</v>
+      </c>
+      <c r="E242" t="n">
+        <v>33700</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>2023-03-14</t>
+        </is>
+      </c>
+      <c r="G242" t="n">
+        <v>86800</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>2022-06-08</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>88900</v>
+      </c>
+      <c r="J242" t="n">
+        <v>32950</v>
+      </c>
+      <c r="K242" t="n">
+        <v>39576</v>
+      </c>
+      <c r="L242" t="n">
+        <v>112.69</v>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="O242" t="n">
+        <v>39576</v>
+      </c>
+      <c r="P242" t="n">
+        <v>112</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>066570</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>113800</v>
+      </c>
+      <c r="E243" t="n">
+        <v>77800</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
+      </c>
+      <c r="G243" t="n">
+        <v>117900</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>121400</v>
+      </c>
+      <c r="J243" t="n">
+        <v>77200</v>
+      </c>
+      <c r="K243" t="n">
+        <v>97158</v>
+      </c>
+      <c r="L243" t="n">
+        <v>117.13</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O243" t="n">
+        <v>97158</v>
+      </c>
+      <c r="P243" t="n">
+        <v>117</v>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>251630</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>브이원텍</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>9280</v>
+      </c>
+      <c r="E244" t="n">
+        <v>5760</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="G244" t="n">
+        <v>9740</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>2023-03-20</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>10100</v>
+      </c>
+      <c r="J244" t="n">
+        <v>5760</v>
+      </c>
+      <c r="K244" t="n">
+        <v>7163</v>
+      </c>
+      <c r="L244" t="n">
+        <v>129.55</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O244" t="n">
+        <v>7163</v>
+      </c>
+      <c r="P244" t="n">
+        <v>129</v>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>121600</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>나노신소재</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>144900</v>
+      </c>
+      <c r="E245" t="n">
+        <v>67400</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>2022-07-01</t>
+        </is>
+      </c>
+      <c r="G245" t="n">
+        <v>153300</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>163300</v>
+      </c>
+      <c r="J245" t="n">
+        <v>66200</v>
+      </c>
+      <c r="K245" t="n">
+        <v>100801</v>
+      </c>
+      <c r="L245" t="n">
+        <v>143.75</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O245" t="n">
+        <v>100801</v>
+      </c>
+      <c r="P245" t="n">
+        <v>143</v>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>036930</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>주성엔지니어링</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>16320</v>
+      </c>
+      <c r="E246" t="n">
+        <v>10410</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>2023-03-15</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>20850</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>2022-06-08</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>21350</v>
+      </c>
+      <c r="J246" t="n">
+        <v>10200</v>
+      </c>
+      <c r="K246" t="n">
+        <v>12126</v>
+      </c>
+      <c r="L246" t="n">
+        <v>134.58</v>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>가을1</t>
+        </is>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O246" t="n">
+        <v>12126</v>
+      </c>
+      <c r="P246" t="n">
+        <v>134</v>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>078150</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>HB테크놀러지</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>2570</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1740</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="G247" t="n">
+        <v>2670</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>2023-03-29</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>2800</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1635</v>
+      </c>
+      <c r="K247" t="n">
+        <v>1967</v>
+      </c>
+      <c r="L247" t="n">
+        <v>130.61</v>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>가을1</t>
+        </is>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O247" t="n">
+        <v>1967</v>
+      </c>
+      <c r="P247" t="n">
+        <v>130</v>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>265520</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>AP시스템</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>22350</v>
+      </c>
+      <c r="E248" t="n">
+        <v>15900</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="G248" t="n">
+        <v>22750</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>2023-03-29</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>23050</v>
+      </c>
+      <c r="J248" t="n">
+        <v>15700</v>
+      </c>
+      <c r="K248" t="n">
+        <v>19005</v>
+      </c>
+      <c r="L248" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O248" t="n">
+        <v>19005</v>
+      </c>
+      <c r="P248" t="n">
+        <v>117</v>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>065130</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>탑엔지니어링</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>5760</v>
+      </c>
+      <c r="E249" t="n">
+        <v>4780</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="G249" t="n">
+        <v>6590</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>2022-06-08</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>6930</v>
+      </c>
+      <c r="J249" t="n">
+        <v>4680</v>
+      </c>
+      <c r="K249" t="n">
+        <v>5247</v>
+      </c>
+      <c r="L249" t="n">
+        <v>109.76</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O249" t="n">
+        <v>5247</v>
+      </c>
+      <c r="P249" t="n">
+        <v>109</v>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>122640</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>예스티</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>10310</v>
+      </c>
+      <c r="E250" t="n">
+        <v>6170</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="G250" t="n">
+        <v>10500</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>11100</v>
+      </c>
+      <c r="J250" t="n">
+        <v>5960</v>
+      </c>
+      <c r="K250" t="n">
+        <v>8244</v>
+      </c>
+      <c r="L250" t="n">
+        <v>125.06</v>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O250" t="n">
+        <v>8244</v>
+      </c>
+      <c r="P250" t="n">
+        <v>125</v>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>096870</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>엘디티</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>3770</v>
+      </c>
+      <c r="E251" t="n">
+        <v>3225</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="G251" t="n">
+        <v>4565</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>4770</v>
+      </c>
+      <c r="J251" t="n">
+        <v>3115</v>
+      </c>
+      <c r="K251" t="n">
+        <v>3797</v>
+      </c>
+      <c r="L251" t="n">
+        <v>99.28</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="O251" t="n">
+        <v>3797</v>
+      </c>
+      <c r="P251" t="n">
+        <v>99</v>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>187870</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>디바이스이엔지</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>20500</v>
+      </c>
+      <c r="E252" t="n">
+        <v>13800</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="G252" t="n">
+        <v>21650</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>21750</v>
+      </c>
+      <c r="J252" t="n">
+        <v>13250</v>
+      </c>
+      <c r="K252" t="n">
+        <v>15830</v>
+      </c>
+      <c r="L252" t="n">
+        <v>129.49</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O252" t="n">
+        <v>15830</v>
+      </c>
+      <c r="P252" t="n">
+        <v>129</v>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>238490</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>힘스</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>7150</v>
+      </c>
+      <c r="E253" t="n">
+        <v>5730</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>2022-10-21</t>
+        </is>
+      </c>
+      <c r="G253" t="n">
+        <v>8070</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>8600</v>
+      </c>
+      <c r="J253" t="n">
+        <v>5540</v>
+      </c>
+      <c r="K253" t="n">
+        <v>6235</v>
+      </c>
+      <c r="L253" t="n">
+        <v>114.66</v>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O253" t="n">
+        <v>6235</v>
+      </c>
+      <c r="P253" t="n">
+        <v>114</v>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>108230</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>톱텍</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>10100</v>
+      </c>
+      <c r="E254" t="n">
+        <v>5590</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="G254" t="n">
+        <v>10870</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>11250</v>
+      </c>
+      <c r="J254" t="n">
+        <v>5330</v>
+      </c>
+      <c r="K254" t="n">
+        <v>8096</v>
+      </c>
+      <c r="L254" t="n">
+        <v>124.75</v>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O254" t="n">
+        <v>8096</v>
+      </c>
+      <c r="P254" t="n">
+        <v>124</v>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>083500</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>에프엔에스테크</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>10290</v>
+      </c>
+      <c r="E255" t="n">
+        <v>6710</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>2023-01-02</t>
+        </is>
+      </c>
+      <c r="G255" t="n">
+        <v>11050</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>2022-06-08</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>11300</v>
+      </c>
+      <c r="J255" t="n">
+        <v>6430</v>
+      </c>
+      <c r="K255" t="n">
+        <v>7948</v>
+      </c>
+      <c r="L255" t="n">
+        <v>129.46</v>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O255" t="n">
+        <v>7948</v>
+      </c>
+      <c r="P255" t="n">
+        <v>129</v>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>040910</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>아이씨디</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>13230</v>
+      </c>
+      <c r="E256" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="G256" t="n">
+        <v>13230</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>13270</v>
+      </c>
+      <c r="J256" t="n">
+        <v>7420</v>
+      </c>
+      <c r="K256" t="n">
+        <v>9493</v>
+      </c>
+      <c r="L256" t="n">
+        <v>139.36</v>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>가을2</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O256" t="n">
+        <v>9493</v>
+      </c>
+      <c r="P256" t="n">
+        <v>139</v>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>063760</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>이엘피</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>6830</v>
+      </c>
+      <c r="E257" t="n">
+        <v>3280</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="G257" t="n">
+        <v>7090</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>7180</v>
+      </c>
+      <c r="J257" t="n">
+        <v>3195</v>
+      </c>
+      <c r="K257" t="n">
+        <v>4218</v>
+      </c>
+      <c r="L257" t="n">
+        <v>161.91</v>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O257" t="n">
+        <v>4218</v>
+      </c>
+      <c r="P257" t="n">
+        <v>161</v>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>240810</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>원익IPS</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E258" t="n">
+        <v>22250</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+      <c r="G258" t="n">
+        <v>39350</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>40500</v>
+      </c>
+      <c r="J258" t="n">
+        <v>21600</v>
+      </c>
+      <c r="K258" t="n">
+        <v>29064</v>
+      </c>
+      <c r="L258" t="n">
+        <v>120.42</v>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O258" t="n">
+        <v>29064</v>
+      </c>
+      <c r="P258" t="n">
+        <v>120</v>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>083930</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>아바코</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>17490</v>
+      </c>
+      <c r="E259" t="n">
+        <v>9990</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="G259" t="n">
+        <v>17490</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>18400</v>
+      </c>
+      <c r="J259" t="n">
+        <v>9820</v>
+      </c>
+      <c r="K259" t="n">
+        <v>14846</v>
+      </c>
+      <c r="L259" t="n">
+        <v>117.81</v>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O259" t="n">
+        <v>14846</v>
+      </c>
+      <c r="P259" t="n">
+        <v>117</v>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>051910</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>698000</v>
+      </c>
+      <c r="E260" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>2022-07-04</t>
+        </is>
+      </c>
+      <c r="G260" t="n">
+        <v>740000</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>2022-11-30</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>760000</v>
+      </c>
+      <c r="J260" t="n">
+        <v>497500</v>
+      </c>
+      <c r="K260" t="n">
+        <v>662025</v>
+      </c>
+      <c r="L260" t="n">
+        <v>105.43</v>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O260" t="n">
+        <v>662025</v>
+      </c>
+      <c r="P260" t="n">
+        <v>105</v>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>104830</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>원익머트리얼즈</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>28700</v>
+      </c>
+      <c r="E261" t="n">
+        <v>24550</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>2023-03-14</t>
+        </is>
+      </c>
+      <c r="G261" t="n">
+        <v>39850</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>2022-06-14</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>39850</v>
+      </c>
+      <c r="J261" t="n">
+        <v>24250</v>
+      </c>
+      <c r="K261" t="n">
+        <v>29059</v>
+      </c>
+      <c r="L261" t="n">
+        <v>98.76000000000001</v>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="O261" t="n">
+        <v>29059</v>
+      </c>
+      <c r="P261" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>083310</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>엘오티베큠</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>13530</v>
+      </c>
+      <c r="E262" t="n">
+        <v>8650</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="G262" t="n">
+        <v>13950</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>14250</v>
+      </c>
+      <c r="J262" t="n">
+        <v>8470</v>
+      </c>
+      <c r="K262" t="n">
+        <v>11997</v>
+      </c>
+      <c r="L262" t="n">
+        <v>112.77</v>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O262" t="n">
+        <v>11997</v>
+      </c>
+      <c r="P262" t="n">
+        <v>112</v>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>056190</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>에스에프에이</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>39350</v>
+      </c>
+      <c r="E263" t="n">
+        <v>34850</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>2023-03-15</t>
+        </is>
+      </c>
+      <c r="G263" t="n">
+        <v>43600</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>2022-08-02</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>44050</v>
+      </c>
+      <c r="J263" t="n">
+        <v>34350</v>
+      </c>
+      <c r="K263" t="n">
+        <v>37594</v>
+      </c>
+      <c r="L263" t="n">
+        <v>104.67</v>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O263" t="n">
+        <v>37594</v>
+      </c>
+      <c r="P263" t="n">
+        <v>104</v>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>005930</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>63400</v>
+      </c>
+      <c r="E264" t="n">
+        <v>52600</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+      <c r="G264" t="n">
+        <v>66800</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>67300</v>
+      </c>
+      <c r="J264" t="n">
+        <v>51800</v>
+      </c>
+      <c r="K264" t="n">
+        <v>60277</v>
+      </c>
+      <c r="L264" t="n">
+        <v>105.18</v>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O264" t="n">
+        <v>60277</v>
+      </c>
+      <c r="P264" t="n">
+        <v>105</v>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>155650</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>와이엠씨</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>6600</v>
+      </c>
+      <c r="E265" t="n">
+        <v>5270</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="G265" t="n">
+        <v>7290</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>7300</v>
+      </c>
+      <c r="J265" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K265" t="n">
+        <v>6033</v>
+      </c>
+      <c r="L265" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O265" t="n">
+        <v>6033</v>
+      </c>
+      <c r="P265" t="n">
+        <v>109</v>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>080000</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>에스엔유</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>4750</v>
+      </c>
+      <c r="E266" t="n">
+        <v>2150</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+      <c r="G266" t="n">
+        <v>4910</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>5020</v>
+      </c>
+      <c r="J266" t="n">
+        <v>2075</v>
+      </c>
+      <c r="K266" t="n">
+        <v>3045</v>
+      </c>
+      <c r="L266" t="n">
+        <v>155.97</v>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O266" t="n">
+        <v>3045</v>
+      </c>
+      <c r="P266" t="n">
+        <v>155</v>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>068790</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>DMS</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>6930</v>
+      </c>
+      <c r="E267" t="n">
+        <v>4340</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="G267" t="n">
+        <v>6930</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>7100</v>
+      </c>
+      <c r="J267" t="n">
+        <v>4320</v>
+      </c>
+      <c r="K267" t="n">
+        <v>5885</v>
+      </c>
+      <c r="L267" t="n">
+        <v>117.76</v>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O267" t="n">
+        <v>5885</v>
+      </c>
+      <c r="P267" t="n">
+        <v>117</v>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>088130</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>동아엘텍</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>9740</v>
+      </c>
+      <c r="E268" t="n">
+        <v>6020</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="G268" t="n">
+        <v>10390</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>10480</v>
+      </c>
+      <c r="J268" t="n">
+        <v>5970</v>
+      </c>
+      <c r="K268" t="n">
+        <v>7167</v>
+      </c>
+      <c r="L268" t="n">
+        <v>135.9</v>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>가을2</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O268" t="n">
+        <v>7167</v>
+      </c>
+      <c r="P268" t="n">
+        <v>135</v>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>049950</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>미래컴퍼니</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>43950</v>
+      </c>
+      <c r="E269" t="n">
+        <v>17300</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>2023-01-02</t>
+        </is>
+      </c>
+      <c r="G269" t="n">
+        <v>49700</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>51100</v>
+      </c>
+      <c r="J269" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K269" t="n">
+        <v>24413</v>
+      </c>
+      <c r="L269" t="n">
+        <v>180.02</v>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O269" t="n">
+        <v>24413</v>
+      </c>
+      <c r="P269" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>034220</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>LG디스플레이</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>16190</v>
+      </c>
+      <c r="E270" t="n">
+        <v>11950</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+      <c r="G270" t="n">
+        <v>17300</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>17650</v>
+      </c>
+      <c r="J270" t="n">
+        <v>11800</v>
+      </c>
+      <c r="K270" t="n">
+        <v>14128</v>
+      </c>
+      <c r="L270" t="n">
+        <v>114.59</v>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O270" t="n">
+        <v>14128</v>
+      </c>
+      <c r="P270" t="n">
+        <v>114</v>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>009310</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>참엔지니어링</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>736</v>
+      </c>
+      <c r="E271" t="n">
+        <v>665</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>2023-03-15</t>
+        </is>
+      </c>
+      <c r="G271" t="n">
+        <v>1195</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>1220</v>
+      </c>
+      <c r="J271" t="n">
+        <v>657</v>
+      </c>
+      <c r="K271" t="n">
+        <v>773</v>
+      </c>
+      <c r="L271" t="n">
+        <v>95.19</v>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="O271" t="n">
+        <v>773</v>
+      </c>
+      <c r="P271" t="n">
+        <v>95</v>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>213420</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>덕산네오룩스</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>48500</v>
+      </c>
+      <c r="E272" t="n">
+        <v>29300</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>2022-07-04</t>
+        </is>
+      </c>
+      <c r="G272" t="n">
+        <v>50100</v>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>51000</v>
+      </c>
+      <c r="J272" t="n">
+        <v>28950</v>
+      </c>
+      <c r="K272" t="n">
+        <v>39344</v>
+      </c>
+      <c r="L272" t="n">
+        <v>123.27</v>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O272" t="n">
+        <v>39344</v>
+      </c>
+      <c r="P272" t="n">
+        <v>123</v>
+      </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>131760</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>파인텍</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>1489</v>
+      </c>
+      <c r="E273" t="n">
+        <v>998</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="G273" t="n">
+        <v>1490</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>1539</v>
+      </c>
+      <c r="J273" t="n">
+        <v>966</v>
+      </c>
+      <c r="K273" t="n">
+        <v>1229</v>
+      </c>
+      <c r="L273" t="n">
+        <v>121.09</v>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O273" t="n">
+        <v>1229</v>
+      </c>
+      <c r="P273" t="n">
+        <v>121</v>
+      </c>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>054620</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>APS홀딩스</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>14890</v>
+      </c>
+      <c r="E274" t="n">
+        <v>7860</v>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>2022-07-05</t>
+        </is>
+      </c>
+      <c r="G274" t="n">
+        <v>16550</v>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>2022-12-28</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>16900</v>
+      </c>
+      <c r="J274" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K274" t="n">
+        <v>13114</v>
+      </c>
+      <c r="L274" t="n">
+        <v>113.54</v>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O274" t="n">
+        <v>13114</v>
+      </c>
+      <c r="P274" t="n">
+        <v>113</v>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>256940</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>케이피에스</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>10430</v>
+      </c>
+      <c r="E275" t="n">
+        <v>4770</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="G275" t="n">
+        <v>11020</v>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>2023-03-22</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>11900</v>
+      </c>
+      <c r="J275" t="n">
+        <v>4650</v>
+      </c>
+      <c r="K275" t="n">
+        <v>7571</v>
+      </c>
+      <c r="L275" t="n">
+        <v>137.75</v>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>가을2</t>
+        </is>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O275" t="n">
+        <v>7571</v>
+      </c>
+      <c r="P275" t="n">
+        <v>137</v>
+      </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>177350</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>베셀</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>4600</v>
+      </c>
+      <c r="E276" t="n">
+        <v>4250</v>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>2023-03-15</t>
+        </is>
+      </c>
+      <c r="G276" t="n">
+        <v>8820</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>8990</v>
+      </c>
+      <c r="J276" t="n">
+        <v>4100</v>
+      </c>
+      <c r="K276" t="n">
+        <v>6093</v>
+      </c>
+      <c r="L276" t="n">
+        <v>75.48999999999999</v>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>겨울</t>
+        </is>
+      </c>
+      <c r="O276" t="n">
+        <v>6093</v>
+      </c>
+      <c r="P276" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>090470</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>제이스텍</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>10380</v>
+      </c>
+      <c r="E277" t="n">
+        <v>5160</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="G277" t="n">
+        <v>11560</v>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>2023-03-09</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>12000</v>
+      </c>
+      <c r="J277" t="n">
+        <v>5050</v>
+      </c>
+      <c r="K277" t="n">
+        <v>8264</v>
+      </c>
+      <c r="L277" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O277" t="n">
+        <v>8264</v>
+      </c>
+      <c r="P277" t="n">
+        <v>125</v>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>059100</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>아이컴포넌트</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>6900</v>
+      </c>
+      <c r="E278" t="n">
+        <v>5820</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
+      </c>
+      <c r="G278" t="n">
+        <v>8000</v>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>2023-01-18</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>8070</v>
+      </c>
+      <c r="J278" t="n">
+        <v>5560</v>
+      </c>
+      <c r="K278" t="n">
+        <v>6805</v>
+      </c>
+      <c r="L278" t="n">
+        <v>101.39</v>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="O278" t="n">
+        <v>6805</v>
+      </c>
+      <c r="P278" t="n">
+        <v>101</v>
+      </c>
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>090360</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>로보스타</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>42250</v>
+      </c>
+      <c r="E279" t="n">
+        <v>16550</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="G279" t="n">
+        <v>43400</v>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>49600</v>
+      </c>
+      <c r="J279" t="n">
+        <v>16350</v>
+      </c>
+      <c r="K279" t="n">
+        <v>24665</v>
+      </c>
+      <c r="L279" t="n">
+        <v>171.29</v>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O279" t="n">
+        <v>24665</v>
+      </c>
+      <c r="P279" t="n">
+        <v>171</v>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32964,7 +40014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E229"/>
+  <dimension ref="A1:E279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -39161,6 +46211,1256 @@
         <is>
           <t>202303</t>
         </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>255440</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>야스</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>8285</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>043590</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>크로바하이텍</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>079950</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>인베니아</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>317330</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>덕산테코피아</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>16227</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>171090</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>선익시스템</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>20739</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>144960</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>뉴파워프라즈마</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>143540</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>영우디에스피</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>161580</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>필옵틱스</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>8051</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>272290</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>이녹스첨단소재</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>32303</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>171010</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>램테크놀러지</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>5860</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>114810</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>한솔아이원스</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>7246</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>141000</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>비아트론</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>9049</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>131290</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>티에스이</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>39576</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>066570</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>97158</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>251630</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>브이원텍</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>7163</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>121600</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>나노신소재</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>100801</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>036930</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>주성엔지니어링</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>12126</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>078150</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>HB테크놀러지</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>265520</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>AP시스템</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>19005</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>065130</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>탑엔지니어링</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>5247</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>122640</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>예스티</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>8244</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>096870</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>엘디티</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>187870</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>디바이스이엔지</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>15830</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>238490</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>힘스</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>6235</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>108230</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>톱텍</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>8096</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>083500</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>에프엔에스테크</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>7948</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>040910</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>아이씨디</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>9493</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>063760</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>이엘피</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>240810</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>원익IPS</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>29064</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>083930</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>아바코</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>14846</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>051910</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>662025</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>104830</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>원익머트리얼즈</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>29059</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>083310</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>엘오티베큠</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>11997</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>056190</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>에스에프에이</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>37594</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>005930</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>60277</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>155650</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>와이엠씨</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>6033</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>080000</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>에스엔유</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>068790</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>DMS</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>5885</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>088130</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>동아엘텍</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>7167</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>049950</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>미래컴퍼니</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>24413</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>034220</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>LG디스플레이</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>14128</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>009310</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>참엔지니어링</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>213420</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>덕산네오룩스</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>39344</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>131760</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>파인텍</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>054620</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>APS홀딩스</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>13114</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>256940</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>케이피에스</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>7571</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>177350</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>베셀</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>6093</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>090470</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>제이스텍</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>8264</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>059100</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>아이컴포넌트</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>6805</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>090360</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>로보스타</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>24665</v>
       </c>
     </row>
   </sheetData>

--- a/Data/관심주_테마별.xlsx
+++ b/Data/관심주_테마별.xlsx
@@ -2223,7 +2223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2278,6 +2278,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -34718,13 +34725,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="E280" sqref="E280"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.21875" style="19" customWidth="1"/>
     <col min="4" max="4" width="155" style="19" customWidth="1"/>
@@ -34733,7 +34740,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -34750,7 +34757,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B2" t="s">
@@ -34767,7 +34774,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
@@ -34784,7 +34791,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
@@ -34801,7 +34808,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
@@ -34818,7 +34825,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
@@ -34835,7 +34842,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="A7" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
@@ -34852,7 +34859,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
@@ -34869,7 +34876,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="A9" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
@@ -34886,7 +34893,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="A10" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
@@ -34903,7 +34910,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
@@ -34920,7 +34927,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="A12" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
@@ -34937,7 +34944,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="A13" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
@@ -34954,7 +34961,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="A14" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
@@ -34971,7 +34978,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="A15" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
@@ -34988,7 +34995,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="A16" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
@@ -35005,7 +35012,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" t="s">
+      <c r="A17" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
@@ -35022,7 +35029,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" t="s">
+      <c r="A18" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
@@ -35039,7 +35046,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" t="s">
+      <c r="A19" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
@@ -35056,7 +35063,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" t="s">
+      <c r="A20" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
@@ -35073,7 +35080,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" t="s">
+      <c r="A21" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -35090,7 +35097,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" t="s">
+      <c r="A22" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -35107,7 +35114,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" t="s">
+      <c r="A23" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B23" t="s">
@@ -35124,7 +35131,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" t="s">
+      <c r="A24" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B24" t="s">
@@ -35141,7 +35148,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" t="s">
+      <c r="A25" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B25" t="s">
@@ -35158,7 +35165,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" t="s">
+      <c r="A26" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B26" t="s">
@@ -35175,7 +35182,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" t="s">
+      <c r="A27" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B27" t="s">
@@ -35192,7 +35199,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" t="s">
+      <c r="A28" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B28" t="s">
@@ -35209,7 +35216,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" t="s">
+      <c r="A29" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B29" t="s">
@@ -35226,7 +35233,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" t="s">
+      <c r="A30" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B30" t="s">
@@ -35243,7 +35250,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" t="s">
+      <c r="A31" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B31" t="s">
@@ -35260,7 +35267,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" t="s">
+      <c r="A32" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B32" t="s">
@@ -35277,7 +35284,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" t="s">
+      <c r="A33" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B33" t="s">
@@ -35294,7 +35301,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" t="s">
+      <c r="A34" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B34" t="s">
@@ -35311,7 +35318,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" t="s">
+      <c r="A35" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B35" t="s">
@@ -35328,7 +35335,7 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" t="s">
+      <c r="A36" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B36" t="s">
@@ -35345,7 +35352,7 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" t="s">
+      <c r="A37" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B37" t="s">
@@ -35362,7 +35369,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" t="s">
+      <c r="A38" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B38" t="s">
@@ -35379,7 +35386,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" t="s">
+      <c r="A39" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B39" t="s">
@@ -35396,7 +35403,7 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" t="s">
+      <c r="A40" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B40" t="s">
@@ -35413,7 +35420,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" t="s">
+      <c r="A41" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B41" t="s">
@@ -35430,7 +35437,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" t="s">
+      <c r="A42" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B42" t="s">
@@ -35447,7 +35454,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" t="s">
+      <c r="A43" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B43" t="s">
@@ -35464,7 +35471,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" t="s">
+      <c r="A44" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B44" t="s">
@@ -35481,7 +35488,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" t="s">
+      <c r="A45" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B45" t="s">
@@ -35498,7 +35505,7 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" t="s">
+      <c r="A46" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B46" t="s">
@@ -35515,7 +35522,7 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" t="s">
+      <c r="A47" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B47" t="s">
@@ -35532,7 +35539,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" t="s">
+      <c r="A48" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B48" t="s">
@@ -35549,7 +35556,7 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" t="s">
+      <c r="A49" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B49" t="s">
@@ -35566,7 +35573,7 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" t="s">
+      <c r="A50" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B50" t="s">
@@ -35583,7 +35590,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" t="s">
+      <c r="A51" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B51" t="s">
@@ -35600,7 +35607,7 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" t="s">
+      <c r="A52" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B52" t="s">
@@ -35617,7 +35624,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" t="s">
+      <c r="A53" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B53" t="s">
@@ -35634,7 +35641,7 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" t="s">
+      <c r="A54" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B54" t="s">
@@ -35651,7 +35658,7 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" t="s">
+      <c r="A55" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B55" t="s">
@@ -35668,7 +35675,7 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" t="s">
+      <c r="A56" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B56" t="s">
@@ -35685,7 +35692,7 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" t="s">
+      <c r="A57" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B57" t="s">
@@ -35702,7 +35709,7 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" t="s">
+      <c r="A58" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B58" t="s">
@@ -35719,7 +35726,7 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" t="s">
+      <c r="A59" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B59" t="s">
@@ -35736,7 +35743,7 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" t="s">
+      <c r="A60" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B60" t="s">
@@ -35753,7 +35760,7 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" t="s">
+      <c r="A61" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B61" t="s">
@@ -35770,7 +35777,7 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" t="s">
+      <c r="A62" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B62" t="s">
@@ -35787,7 +35794,7 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" t="s">
+      <c r="A63" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B63" t="s">
@@ -35804,7 +35811,7 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" t="s">
+      <c r="A64" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B64" t="s">
@@ -35821,7 +35828,7 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" t="s">
+      <c r="A65" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B65" t="s">
@@ -35838,7 +35845,7 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" t="s">
+      <c r="A66" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B66" t="s">
@@ -35855,7 +35862,7 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" t="s">
+      <c r="A67" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B67" t="s">
@@ -35872,7 +35879,7 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" t="s">
+      <c r="A68" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B68" t="s">
@@ -35889,7 +35896,7 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" t="s">
+      <c r="A69" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B69" t="s">
@@ -35906,7 +35913,7 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" t="s">
+      <c r="A70" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B70" t="s">
@@ -35923,7 +35930,7 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" t="s">
+      <c r="A71" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B71" t="s">
@@ -35940,7 +35947,7 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" t="s">
+      <c r="A72" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B72" t="s">
@@ -35957,7 +35964,7 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" t="s">
+      <c r="A73" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B73" t="s">
@@ -35974,7 +35981,7 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" t="s">
+      <c r="A74" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B74" t="s">
@@ -35991,7 +35998,7 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" t="s">
+      <c r="A75" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B75" t="s">
@@ -36008,7 +36015,7 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" t="s">
+      <c r="A76" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B76" t="s">
@@ -36025,7 +36032,7 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" t="s">
+      <c r="A77" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B77" t="s">
@@ -36042,7 +36049,7 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" t="s">
+      <c r="A78" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B78" t="s">
@@ -36059,7 +36066,7 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" t="s">
+      <c r="A79" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B79" t="s">
@@ -36076,7 +36083,7 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" t="s">
+      <c r="A80" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B80" t="s">
@@ -36093,7 +36100,7 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" t="s">
+      <c r="A81" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B81" t="s">
@@ -36110,7 +36117,7 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" t="s">
+      <c r="A82" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B82" t="s">
@@ -36127,7 +36134,7 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" t="s">
+      <c r="A83" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B83" t="s">
@@ -36144,7 +36151,7 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" t="s">
+      <c r="A84" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B84" t="s">
@@ -36161,7 +36168,7 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" t="s">
+      <c r="A85" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B85" t="s">
@@ -36178,7 +36185,7 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" t="s">
+      <c r="A86" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B86" t="s">
@@ -36195,7 +36202,7 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" t="s">
+      <c r="A87" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B87" t="s">
@@ -36212,7 +36219,7 @@
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" t="s">
+      <c r="A88" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B88" t="s">
@@ -36229,7 +36236,7 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" t="s">
+      <c r="A89" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B89" t="s">
@@ -36246,7 +36253,7 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" t="s">
+      <c r="A90" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B90" t="s">
@@ -36263,7 +36270,7 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" t="s">
+      <c r="A91" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B91" t="s">
@@ -36280,7 +36287,7 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" t="s">
+      <c r="A92" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B92" t="s">
@@ -36297,7 +36304,7 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" t="s">
+      <c r="A93" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B93" t="s">
@@ -36314,7 +36321,7 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" t="s">
+      <c r="A94" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B94" t="s">
@@ -36331,7 +36338,7 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" t="s">
+      <c r="A95" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B95" t="s">
@@ -36348,7 +36355,7 @@
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" t="s">
+      <c r="A96" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B96" t="s">
@@ -36365,7 +36372,7 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" t="s">
+      <c r="A97" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B97" t="s">
@@ -36382,7 +36389,7 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" t="s">
+      <c r="A98" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B98" t="s">
@@ -36399,7 +36406,7 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" t="s">
+      <c r="A99" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B99" t="s">
@@ -36416,7 +36423,7 @@
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" t="s">
+      <c r="A100" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B100" t="s">
@@ -36433,7 +36440,7 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" t="s">
+      <c r="A101" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B101" t="s">
@@ -36450,7 +36457,7 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" t="s">
+      <c r="A102" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B102" t="s">
@@ -36467,7 +36474,7 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" t="s">
+      <c r="A103" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B103" t="s">
@@ -36484,7 +36491,7 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" t="s">
+      <c r="A104" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B104" t="s">
@@ -36501,7 +36508,7 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" t="s">
+      <c r="A105" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B105" t="s">
@@ -36518,7 +36525,7 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" t="s">
+      <c r="A106" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B106" t="s">
@@ -36535,7 +36542,7 @@
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" t="s">
+      <c r="A107" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B107" t="s">
@@ -36552,7 +36559,7 @@
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" t="s">
+      <c r="A108" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B108" t="s">
@@ -36569,7 +36576,7 @@
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" t="s">
+      <c r="A109" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B109" t="s">
@@ -36586,7 +36593,7 @@
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" t="s">
+      <c r="A110" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B110" t="s">
@@ -36603,7 +36610,7 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" t="s">
+      <c r="A111" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B111" t="s">
@@ -36620,7 +36627,7 @@
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" t="s">
+      <c r="A112" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B112" t="s">
@@ -36637,7 +36644,7 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" t="s">
+      <c r="A113" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B113" t="s">
@@ -36654,7 +36661,7 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" t="s">
+      <c r="A114" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B114" t="s">
@@ -36671,7 +36678,7 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" t="s">
+      <c r="A115" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B115" t="s">
@@ -36688,7 +36695,7 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" t="s">
+      <c r="A116" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B116" t="s">
@@ -36705,7 +36712,7 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" t="s">
+      <c r="A117" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B117" t="s">
@@ -36722,7 +36729,7 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" t="s">
+      <c r="A118" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B118" t="s">
@@ -36739,7 +36746,7 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" t="s">
+      <c r="A119" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B119" t="s">
@@ -36756,7 +36763,7 @@
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" t="s">
+      <c r="A120" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B120" t="s">
@@ -36773,7 +36780,7 @@
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" t="s">
+      <c r="A121" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B121" t="s">
@@ -36790,7 +36797,7 @@
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" t="s">
+      <c r="A122" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B122" t="s">
@@ -36807,7 +36814,7 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" t="s">
+      <c r="A123" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B123" t="s">
@@ -36824,7 +36831,7 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" t="s">
+      <c r="A124" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B124" t="s">
@@ -36841,7 +36848,7 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" t="s">
+      <c r="A125" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B125" t="s">
@@ -36858,7 +36865,7 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" t="s">
+      <c r="A126" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B126" t="s">
@@ -36875,7 +36882,7 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" t="s">
+      <c r="A127" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B127" t="s">
@@ -36892,7 +36899,7 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" t="s">
+      <c r="A128" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B128" t="s">
@@ -36909,7 +36916,7 @@
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" t="s">
+      <c r="A129" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B129" t="s">
@@ -36926,7 +36933,7 @@
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" t="s">
+      <c r="A130" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B130" t="s">
@@ -36943,7 +36950,7 @@
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" t="s">
+      <c r="A131" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B131" t="s">
@@ -36960,7 +36967,7 @@
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" t="s">
+      <c r="A132" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B132" t="s">
@@ -36977,7 +36984,7 @@
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" t="s">
+      <c r="A133" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B133" t="s">
@@ -36994,7 +37001,7 @@
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" t="s">
+      <c r="A134" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B134" t="s">
@@ -37011,7 +37018,7 @@
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" t="s">
+      <c r="A135" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B135" t="s">
@@ -37028,7 +37035,7 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" t="s">
+      <c r="A136" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B136" t="s">
@@ -37045,7 +37052,7 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" t="s">
+      <c r="A137" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B137" t="s">
@@ -37062,7 +37069,7 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" t="s">
+      <c r="A138" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B138" t="s">
@@ -37079,7 +37086,7 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" t="s">
+      <c r="A139" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B139" t="s">
@@ -37096,7 +37103,7 @@
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" t="s">
+      <c r="A140" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B140" t="s">
@@ -37113,7 +37120,7 @@
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" t="s">
+      <c r="A141" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B141" t="s">
@@ -37130,7 +37137,7 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" t="s">
+      <c r="A142" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B142" t="s">
@@ -37147,7 +37154,7 @@
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" t="s">
+      <c r="A143" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B143" t="s">
@@ -37164,7 +37171,7 @@
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" t="s">
+      <c r="A144" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B144" t="s">
@@ -37181,7 +37188,7 @@
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" t="s">
+      <c r="A145" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B145" t="s">
@@ -37198,7 +37205,7 @@
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" t="s">
+      <c r="A146" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B146" t="s">
@@ -37215,7 +37222,7 @@
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" t="s">
+      <c r="A147" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B147" t="s">
@@ -37232,7 +37239,7 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" t="s">
+      <c r="A148" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B148" t="s">
@@ -37249,7 +37256,7 @@
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" t="s">
+      <c r="A149" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B149" t="s">
@@ -37266,7 +37273,7 @@
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" t="s">
+      <c r="A150" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B150" t="s">
@@ -37283,7 +37290,7 @@
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" t="s">
+      <c r="A151" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B151" t="s">
@@ -37300,7 +37307,7 @@
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" t="s">
+      <c r="A152" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B152" t="s">
@@ -37317,7 +37324,7 @@
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" t="s">
+      <c r="A153" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B153" t="s">
@@ -37334,7 +37341,7 @@
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" t="s">
+      <c r="A154" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B154" t="s">
@@ -37351,7 +37358,7 @@
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" t="s">
+      <c r="A155" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B155" t="s">
@@ -37368,7 +37375,7 @@
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" t="s">
+      <c r="A156" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B156" t="s">
@@ -37385,7 +37392,7 @@
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" t="s">
+      <c r="A157" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B157" t="s">
@@ -37402,7 +37409,7 @@
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" t="s">
+      <c r="A158" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B158" t="s">
@@ -37419,7 +37426,7 @@
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" t="s">
+      <c r="A159" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B159" t="s">
@@ -37436,7 +37443,7 @@
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" t="s">
+      <c r="A160" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B160" t="s">
@@ -37453,7 +37460,7 @@
       </c>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" t="s">
+      <c r="A161" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B161" t="s">
@@ -37470,7 +37477,7 @@
       </c>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" t="s">
+      <c r="A162" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B162" t="s">
@@ -37487,7 +37494,7 @@
       </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" t="s">
+      <c r="A163" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B163" t="s">
@@ -37504,7 +37511,7 @@
       </c>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" t="s">
+      <c r="A164" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B164" t="s">
@@ -37521,7 +37528,7 @@
       </c>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" t="s">
+      <c r="A165" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B165" t="s">
@@ -37538,7 +37545,7 @@
       </c>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" t="s">
+      <c r="A166" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B166" t="s">
@@ -37555,7 +37562,7 @@
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" t="s">
+      <c r="A167" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B167" t="s">
@@ -37572,7 +37579,7 @@
       </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" t="s">
+      <c r="A168" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B168" t="s">
@@ -37589,7 +37596,7 @@
       </c>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" t="s">
+      <c r="A169" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B169" t="s">
@@ -37606,7 +37613,7 @@
       </c>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" t="s">
+      <c r="A170" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B170" t="s">
@@ -37623,7 +37630,7 @@
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" t="s">
+      <c r="A171" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B171" t="s">
@@ -37640,7 +37647,7 @@
       </c>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" t="s">
+      <c r="A172" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B172" t="s">
@@ -37657,7 +37664,7 @@
       </c>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" t="s">
+      <c r="A173" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B173" t="s">
@@ -37674,7 +37681,7 @@
       </c>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" t="s">
+      <c r="A174" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B174" t="s">
@@ -37691,7 +37698,7 @@
       </c>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" t="s">
+      <c r="A175" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B175" t="s">
@@ -37708,7 +37715,7 @@
       </c>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" t="s">
+      <c r="A176" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B176" t="s">
@@ -37725,7 +37732,7 @@
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" t="s">
+      <c r="A177" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B177" t="s">
@@ -37742,7 +37749,7 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" t="s">
+      <c r="A178" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B178" t="s">
@@ -37759,7 +37766,7 @@
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" t="s">
+      <c r="A179" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B179" t="s">
@@ -37776,7 +37783,7 @@
       </c>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" t="s">
+      <c r="A180" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B180" t="s">
@@ -37793,7 +37800,7 @@
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" t="s">
+      <c r="A181" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B181" t="s">
@@ -37810,7 +37817,7 @@
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" t="s">
+      <c r="A182" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B182" t="s">
@@ -37827,7 +37834,7 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" t="s">
+      <c r="A183" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B183" t="s">
@@ -37844,7 +37851,7 @@
       </c>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" t="s">
+      <c r="A184" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B184" t="s">
@@ -37861,7 +37868,7 @@
       </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" t="s">
+      <c r="A185" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B185" t="s">
@@ -37878,7 +37885,7 @@
       </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" t="s">
+      <c r="A186" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B186" t="s">
@@ -37895,7 +37902,7 @@
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" t="s">
+      <c r="A187" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B187" t="s">
@@ -37912,7 +37919,7 @@
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" t="s">
+      <c r="A188" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B188" t="s">
@@ -37929,7 +37936,7 @@
       </c>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" t="s">
+      <c r="A189" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B189" t="s">
@@ -37946,7 +37953,7 @@
       </c>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" t="s">
+      <c r="A190" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B190" t="s">
@@ -37963,7 +37970,7 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" t="s">
+      <c r="A191" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B191" t="s">
@@ -37980,7 +37987,7 @@
       </c>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" t="s">
+      <c r="A192" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B192" t="s">
@@ -37997,7 +38004,7 @@
       </c>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" t="s">
+      <c r="A193" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B193" t="s">
@@ -38014,7 +38021,7 @@
       </c>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" t="s">
+      <c r="A194" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B194" t="s">
@@ -38031,7 +38038,7 @@
       </c>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" t="s">
+      <c r="A195" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B195" t="s">
@@ -38048,7 +38055,7 @@
       </c>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" t="s">
+      <c r="A196" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B196" t="s">
@@ -38065,7 +38072,7 @@
       </c>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" t="s">
+      <c r="A197" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B197" t="s">
@@ -38082,7 +38089,7 @@
       </c>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" t="s">
+      <c r="A198" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B198" t="s">
@@ -38099,7 +38106,7 @@
       </c>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" t="s">
+      <c r="A199" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B199" t="s">
@@ -38116,7 +38123,7 @@
       </c>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" t="s">
+      <c r="A200" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B200" t="s">
@@ -38133,7 +38140,7 @@
       </c>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" t="s">
+      <c r="A201" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B201" t="s">
@@ -38150,7 +38157,7 @@
       </c>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" t="s">
+      <c r="A202" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B202" t="s">
@@ -38167,7 +38174,7 @@
       </c>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" t="s">
+      <c r="A203" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B203" t="s">
@@ -38184,7 +38191,7 @@
       </c>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" t="s">
+      <c r="A204" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B204" t="s">
@@ -38201,7 +38208,7 @@
       </c>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" t="s">
+      <c r="A205" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B205" t="s">
@@ -38218,7 +38225,7 @@
       </c>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" t="s">
+      <c r="A206" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B206" t="s">
@@ -38235,7 +38242,7 @@
       </c>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" t="s">
+      <c r="A207" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B207" t="s">
@@ -38252,7 +38259,7 @@
       </c>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" t="s">
+      <c r="A208" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B208" t="s">
@@ -38269,7 +38276,7 @@
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" t="s">
+      <c r="A209" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B209" t="s">
@@ -38286,7 +38293,7 @@
       </c>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210" t="s">
+      <c r="A210" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B210" t="s">
@@ -38303,7 +38310,7 @@
       </c>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" t="s">
+      <c r="A211" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B211" t="s">
@@ -38320,7 +38327,7 @@
       </c>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" t="s">
+      <c r="A212" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B212" t="s">
@@ -38337,7 +38344,7 @@
       </c>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" t="s">
+      <c r="A213" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B213" t="s">
@@ -38354,7 +38361,7 @@
       </c>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" t="s">
+      <c r="A214" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B214" t="s">
@@ -38371,7 +38378,7 @@
       </c>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" t="s">
+      <c r="A215" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B215" t="s">
@@ -38388,7 +38395,7 @@
       </c>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" t="s">
+      <c r="A216" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B216" t="s">
@@ -38405,7 +38412,7 @@
       </c>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217" t="s">
+      <c r="A217" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B217" t="s">
@@ -38422,7 +38429,7 @@
       </c>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218" t="s">
+      <c r="A218" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B218" t="s">
@@ -38439,7 +38446,7 @@
       </c>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219" t="s">
+      <c r="A219" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B219" t="s">
@@ -38456,7 +38463,7 @@
       </c>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220" t="s">
+      <c r="A220" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B220" t="s">
@@ -38473,7 +38480,7 @@
       </c>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221" t="s">
+      <c r="A221" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B221" t="s">
@@ -38490,7 +38497,7 @@
       </c>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222" t="s">
+      <c r="A222" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B222" t="s">
@@ -38507,7 +38514,7 @@
       </c>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" t="s">
+      <c r="A223" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B223" t="s">
@@ -38524,7 +38531,7 @@
       </c>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224" t="s">
+      <c r="A224" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B224" t="s">
@@ -38541,7 +38548,7 @@
       </c>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225" t="s">
+      <c r="A225" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B225" t="s">
@@ -38558,7 +38565,7 @@
       </c>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226" t="s">
+      <c r="A226" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B226" t="s">
@@ -38575,7 +38582,7 @@
       </c>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227" t="s">
+      <c r="A227" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B227" t="s">
@@ -38592,7 +38599,7 @@
       </c>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" t="s">
+      <c r="A228" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B228" t="s">
@@ -38609,7 +38616,7 @@
       </c>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229" t="s">
+      <c r="A229" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B229" t="s">
@@ -38626,7 +38633,7 @@
       </c>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230" t="s">
+      <c r="A230" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B230" t="s">
@@ -38643,7 +38650,7 @@
       </c>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231" t="s">
+      <c r="A231" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B231" t="s">
@@ -38660,7 +38667,7 @@
       </c>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232" t="s">
+      <c r="A232" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B232" t="s">
@@ -38677,7 +38684,7 @@
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" t="s">
+      <c r="A233" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B233" t="s">
@@ -38694,7 +38701,7 @@
       </c>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234" t="s">
+      <c r="A234" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B234" t="s">
@@ -38711,7 +38718,7 @@
       </c>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" t="s">
+      <c r="A235" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B235" t="s">
@@ -38728,7 +38735,7 @@
       </c>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236" t="s">
+      <c r="A236" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B236" t="s">
@@ -38745,7 +38752,7 @@
       </c>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237" t="s">
+      <c r="A237" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B237" t="s">
@@ -38762,7 +38769,7 @@
       </c>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" t="s">
+      <c r="A238" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B238" t="s">
@@ -38779,7 +38786,7 @@
       </c>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239" t="s">
+      <c r="A239" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B239" t="s">
@@ -38796,7 +38803,7 @@
       </c>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240" t="s">
+      <c r="A240" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B240" t="s">
@@ -38813,7 +38820,7 @@
       </c>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" t="s">
+      <c r="A241" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B241" t="s">
@@ -38830,7 +38837,7 @@
       </c>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242" t="s">
+      <c r="A242" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B242" t="s">
@@ -38847,7 +38854,7 @@
       </c>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243" t="s">
+      <c r="A243" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B243" t="s">
@@ -38864,7 +38871,7 @@
       </c>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244" t="s">
+      <c r="A244" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B244" t="s">
@@ -38881,7 +38888,7 @@
       </c>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245" t="s">
+      <c r="A245" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B245" t="s">
@@ -38898,7 +38905,7 @@
       </c>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" t="s">
+      <c r="A246" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B246" t="s">
@@ -38915,7 +38922,7 @@
       </c>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247" t="s">
+      <c r="A247" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B247" t="s">
@@ -38932,7 +38939,7 @@
       </c>
     </row>
     <row r="248" spans="1:5">
-      <c r="A248" t="s">
+      <c r="A248" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B248" t="s">
@@ -38949,7 +38956,7 @@
       </c>
     </row>
     <row r="249" spans="1:5">
-      <c r="A249" t="s">
+      <c r="A249" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B249" t="s">
@@ -38966,7 +38973,7 @@
       </c>
     </row>
     <row r="250" spans="1:5">
-      <c r="A250" t="s">
+      <c r="A250" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B250" t="s">
@@ -38983,7 +38990,7 @@
       </c>
     </row>
     <row r="251" spans="1:5">
-      <c r="A251" t="s">
+      <c r="A251" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B251" t="s">
@@ -39000,7 +39007,7 @@
       </c>
     </row>
     <row r="252" spans="1:5">
-      <c r="A252" t="s">
+      <c r="A252" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B252" t="s">
@@ -39017,7 +39024,7 @@
       </c>
     </row>
     <row r="253" spans="1:5">
-      <c r="A253" t="s">
+      <c r="A253" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B253" t="s">
@@ -39034,7 +39041,7 @@
       </c>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254" t="s">
+      <c r="A254" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B254" t="s">
@@ -39051,7 +39058,7 @@
       </c>
     </row>
     <row r="255" spans="1:5">
-      <c r="A255" t="s">
+      <c r="A255" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B255" t="s">
@@ -39068,7 +39075,7 @@
       </c>
     </row>
     <row r="256" spans="1:5">
-      <c r="A256" t="s">
+      <c r="A256" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B256" t="s">
@@ -39085,7 +39092,7 @@
       </c>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" t="s">
+      <c r="A257" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B257" t="s">
@@ -39102,7 +39109,7 @@
       </c>
     </row>
     <row r="258" spans="1:5">
-      <c r="A258" t="s">
+      <c r="A258" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B258" t="s">
@@ -39119,7 +39126,7 @@
       </c>
     </row>
     <row r="259" spans="1:5">
-      <c r="A259" t="s">
+      <c r="A259" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B259" t="s">
@@ -39136,7 +39143,7 @@
       </c>
     </row>
     <row r="260" spans="1:5">
-      <c r="A260" t="s">
+      <c r="A260" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B260" t="s">
@@ -39153,7 +39160,7 @@
       </c>
     </row>
     <row r="261" spans="1:5">
-      <c r="A261" t="s">
+      <c r="A261" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B261" t="s">
@@ -39170,7 +39177,7 @@
       </c>
     </row>
     <row r="262" spans="1:5">
-      <c r="A262" t="s">
+      <c r="A262" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B262" t="s">
@@ -39187,7 +39194,7 @@
       </c>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" t="s">
+      <c r="A263" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B263" t="s">
@@ -39204,7 +39211,7 @@
       </c>
     </row>
     <row r="264" spans="1:5">
-      <c r="A264" t="s">
+      <c r="A264" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B264" t="s">
@@ -39221,7 +39228,7 @@
       </c>
     </row>
     <row r="265" spans="1:5">
-      <c r="A265" t="s">
+      <c r="A265" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B265" t="s">
@@ -39238,7 +39245,7 @@
       </c>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" t="s">
+      <c r="A266" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B266" t="s">
@@ -39255,7 +39262,7 @@
       </c>
     </row>
     <row r="267" spans="1:5">
-      <c r="A267" t="s">
+      <c r="A267" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B267" t="s">
@@ -39272,7 +39279,7 @@
       </c>
     </row>
     <row r="268" spans="1:5">
-      <c r="A268" t="s">
+      <c r="A268" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B268" t="s">
@@ -39289,7 +39296,7 @@
       </c>
     </row>
     <row r="269" spans="1:5">
-      <c r="A269" t="s">
+      <c r="A269" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B269" t="s">
@@ -39306,7 +39313,7 @@
       </c>
     </row>
     <row r="270" spans="1:5">
-      <c r="A270" t="s">
+      <c r="A270" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B270" t="s">
@@ -39323,7 +39330,7 @@
       </c>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" t="s">
+      <c r="A271" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B271" t="s">
@@ -39340,7 +39347,7 @@
       </c>
     </row>
     <row r="272" spans="1:5">
-      <c r="A272" t="s">
+      <c r="A272" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B272" t="s">
@@ -39357,7 +39364,7 @@
       </c>
     </row>
     <row r="273" spans="1:5">
-      <c r="A273" t="s">
+      <c r="A273" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B273" t="s">
@@ -39374,7 +39381,7 @@
       </c>
     </row>
     <row r="274" spans="1:5">
-      <c r="A274" t="s">
+      <c r="A274" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B274" t="s">
@@ -39391,7 +39398,7 @@
       </c>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" t="s">
+      <c r="A275" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B275" t="s">
@@ -39408,7 +39415,7 @@
       </c>
     </row>
     <row r="276" spans="1:5">
-      <c r="A276" t="s">
+      <c r="A276" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B276" t="s">
@@ -39425,7 +39432,7 @@
       </c>
     </row>
     <row r="277" spans="1:5">
-      <c r="A277" t="s">
+      <c r="A277" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B277" t="s">
@@ -39442,7 +39449,7 @@
       </c>
     </row>
     <row r="278" spans="1:5">
-      <c r="A278" t="s">
+      <c r="A278" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B278" t="s">
@@ -39459,7 +39466,7 @@
       </c>
     </row>
     <row r="279" spans="1:5">
-      <c r="A279" t="s">
+      <c r="A279" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B279" t="s">
@@ -39477,6 +39484,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
